--- a/Solina/Production/Input/weather.xlsx
+++ b/Solina/Production/Input/weather.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="77">
   <si>
     <t>dt</t>
   </si>
@@ -82,10 +82,19 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>[{'id': 800, 'main': 'Clear', 'description': 'clear sky', 'icon': '01d'}]</t>
-  </si>
-  <si>
-    <t>[{'id': 800, 'main': 'Clear', 'description': 'clear sky', 'icon': '01n'}]</t>
+    <t>[{'id': 804, 'main': 'Clouds', 'description': 'overcast clouds', 'icon': '04d'}]</t>
+  </si>
+  <si>
+    <t>[{'id': 804, 'main': 'Clouds', 'description': 'overcast clouds', 'icon': '04n'}]</t>
+  </si>
+  <si>
+    <t>[{'id': 803, 'main': 'Clouds', 'description': 'broken clouds', 'icon': '04d'}]</t>
+  </si>
+  <si>
+    <t>[{'id': 803, 'main': 'Clouds', 'description': 'broken clouds', 'icon': '04n'}]</t>
+  </si>
+  <si>
+    <t>[{'id': 802, 'main': 'Clouds', 'description': 'scattered clouds', 'icon': '03n'}]</t>
   </si>
   <si>
     <t>d</t>
@@ -94,148 +103,148 @@
     <t>n</t>
   </si>
   <si>
-    <t>15.02.202410</t>
-  </si>
-  <si>
-    <t>15.02.202411</t>
-  </si>
-  <si>
-    <t>15.02.202412</t>
-  </si>
-  <si>
-    <t>15.02.202413</t>
-  </si>
-  <si>
-    <t>15.02.202414</t>
-  </si>
-  <si>
-    <t>15.02.202415</t>
-  </si>
-  <si>
-    <t>15.02.202416</t>
-  </si>
-  <si>
-    <t>15.02.202417</t>
-  </si>
-  <si>
-    <t>15.02.202418</t>
-  </si>
-  <si>
-    <t>15.02.202419</t>
-  </si>
-  <si>
-    <t>15.02.202420</t>
-  </si>
-  <si>
-    <t>15.02.202421</t>
-  </si>
-  <si>
-    <t>15.02.202422</t>
-  </si>
-  <si>
-    <t>15.02.202423</t>
-  </si>
-  <si>
-    <t>16.02.20240</t>
-  </si>
-  <si>
-    <t>16.02.20241</t>
-  </si>
-  <si>
-    <t>16.02.20242</t>
-  </si>
-  <si>
-    <t>16.02.20243</t>
-  </si>
-  <si>
-    <t>16.02.20244</t>
-  </si>
-  <si>
-    <t>16.02.20245</t>
-  </si>
-  <si>
-    <t>16.02.20246</t>
-  </si>
-  <si>
-    <t>16.02.20247</t>
-  </si>
-  <si>
-    <t>16.02.20248</t>
-  </si>
-  <si>
-    <t>16.02.20249</t>
-  </si>
-  <si>
-    <t>16.02.202410</t>
-  </si>
-  <si>
-    <t>16.02.202411</t>
-  </si>
-  <si>
-    <t>16.02.202412</t>
-  </si>
-  <si>
-    <t>16.02.202413</t>
-  </si>
-  <si>
-    <t>16.02.202414</t>
-  </si>
-  <si>
-    <t>16.02.202415</t>
-  </si>
-  <si>
-    <t>16.02.202416</t>
-  </si>
-  <si>
-    <t>16.02.202417</t>
-  </si>
-  <si>
-    <t>16.02.202418</t>
-  </si>
-  <si>
-    <t>16.02.202419</t>
-  </si>
-  <si>
-    <t>16.02.202420</t>
-  </si>
-  <si>
-    <t>16.02.202421</t>
-  </si>
-  <si>
-    <t>16.02.202422</t>
-  </si>
-  <si>
-    <t>16.02.202423</t>
-  </si>
-  <si>
-    <t>17.02.20240</t>
-  </si>
-  <si>
-    <t>17.02.20241</t>
-  </si>
-  <si>
-    <t>17.02.20242</t>
-  </si>
-  <si>
-    <t>17.02.20243</t>
-  </si>
-  <si>
-    <t>17.02.20244</t>
-  </si>
-  <si>
-    <t>17.02.20245</t>
-  </si>
-  <si>
-    <t>17.02.20246</t>
-  </si>
-  <si>
-    <t>17.02.20247</t>
-  </si>
-  <si>
-    <t>17.02.20248</t>
-  </si>
-  <si>
-    <t>17.02.20249</t>
+    <t>22.02.202413</t>
+  </si>
+  <si>
+    <t>22.02.202414</t>
+  </si>
+  <si>
+    <t>22.02.202415</t>
+  </si>
+  <si>
+    <t>22.02.202416</t>
+  </si>
+  <si>
+    <t>22.02.202417</t>
+  </si>
+  <si>
+    <t>22.02.202418</t>
+  </si>
+  <si>
+    <t>22.02.202419</t>
+  </si>
+  <si>
+    <t>22.02.202420</t>
+  </si>
+  <si>
+    <t>22.02.202421</t>
+  </si>
+  <si>
+    <t>22.02.202422</t>
+  </si>
+  <si>
+    <t>22.02.202423</t>
+  </si>
+  <si>
+    <t>23.02.20240</t>
+  </si>
+  <si>
+    <t>23.02.20241</t>
+  </si>
+  <si>
+    <t>23.02.20242</t>
+  </si>
+  <si>
+    <t>23.02.20243</t>
+  </si>
+  <si>
+    <t>23.02.20244</t>
+  </si>
+  <si>
+    <t>23.02.20245</t>
+  </si>
+  <si>
+    <t>23.02.20246</t>
+  </si>
+  <si>
+    <t>23.02.20247</t>
+  </si>
+  <si>
+    <t>23.02.20248</t>
+  </si>
+  <si>
+    <t>23.02.20249</t>
+  </si>
+  <si>
+    <t>23.02.202410</t>
+  </si>
+  <si>
+    <t>23.02.202411</t>
+  </si>
+  <si>
+    <t>23.02.202412</t>
+  </si>
+  <si>
+    <t>23.02.202413</t>
+  </si>
+  <si>
+    <t>23.02.202414</t>
+  </si>
+  <si>
+    <t>23.02.202415</t>
+  </si>
+  <si>
+    <t>23.02.202416</t>
+  </si>
+  <si>
+    <t>23.02.202417</t>
+  </si>
+  <si>
+    <t>23.02.202418</t>
+  </si>
+  <si>
+    <t>23.02.202419</t>
+  </si>
+  <si>
+    <t>23.02.202420</t>
+  </si>
+  <si>
+    <t>23.02.202421</t>
+  </si>
+  <si>
+    <t>23.02.202422</t>
+  </si>
+  <si>
+    <t>23.02.202423</t>
+  </si>
+  <si>
+    <t>24.02.20240</t>
+  </si>
+  <si>
+    <t>24.02.20241</t>
+  </si>
+  <si>
+    <t>24.02.20242</t>
+  </si>
+  <si>
+    <t>24.02.20243</t>
+  </si>
+  <si>
+    <t>24.02.20244</t>
+  </si>
+  <si>
+    <t>24.02.20245</t>
+  </si>
+  <si>
+    <t>24.02.20246</t>
+  </si>
+  <si>
+    <t>24.02.20247</t>
+  </si>
+  <si>
+    <t>24.02.20248</t>
+  </si>
+  <si>
+    <t>24.02.20249</t>
+  </si>
+  <si>
+    <t>24.02.202410</t>
+  </si>
+  <si>
+    <t>24.02.202411</t>
+  </si>
+  <si>
+    <t>24.02.202412</t>
   </si>
 </sst>
 </file>
@@ -673,7 +682,7 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2">
-        <v>1707991200</v>
+        <v>1708606800</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -685,63 +694,63 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>45337.41666666666</v>
+        <v>45344.54166666666</v>
       </c>
       <c r="F2" s="2">
-        <v>45337</v>
+        <v>45344</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H2">
-        <v>7.06</v>
+        <v>10.68</v>
       </c>
       <c r="I2">
-        <v>7.06</v>
+        <v>8.98</v>
       </c>
       <c r="J2">
-        <v>7.06</v>
+        <v>10.68</v>
       </c>
       <c r="K2">
-        <v>7.06</v>
+        <v>10.68</v>
       </c>
       <c r="L2">
-        <v>1026</v>
+        <v>1015</v>
       </c>
       <c r="M2">
-        <v>1026</v>
+        <v>1015</v>
       </c>
       <c r="N2">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="O2">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="R2">
-        <v>0.65</v>
+        <v>1.57</v>
       </c>
       <c r="S2">
-        <v>104</v>
+        <v>207</v>
       </c>
       <c r="T2">
-        <v>0.76</v>
+        <v>2.64</v>
       </c>
       <c r="U2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="V2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3">
-        <v>1707994800</v>
+        <v>1708610400</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -753,63 +762,63 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>45337.45833333334</v>
+        <v>45344.58333333334</v>
       </c>
       <c r="F3" s="2">
-        <v>45337</v>
+        <v>45344</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H3">
-        <v>7.23</v>
+        <v>10.67</v>
       </c>
       <c r="I3">
-        <v>7.23</v>
+        <v>8.99</v>
       </c>
       <c r="J3">
-        <v>7.23</v>
+        <v>10.62</v>
       </c>
       <c r="K3">
-        <v>7.9</v>
+        <v>10.67</v>
       </c>
       <c r="L3">
-        <v>1026</v>
+        <v>1015</v>
       </c>
       <c r="M3">
-        <v>1026</v>
+        <v>1015</v>
       </c>
       <c r="N3">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="O3">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="P3">
-        <v>-0.67</v>
+        <v>0.05</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="R3">
-        <v>0.77</v>
+        <v>1.13</v>
       </c>
       <c r="S3">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="T3">
-        <v>0.96</v>
+        <v>2.12</v>
       </c>
       <c r="U3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="V3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4">
-        <v>1707998400</v>
+        <v>1708614000</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -821,63 +830,63 @@
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>45337.5</v>
+        <v>45344.625</v>
       </c>
       <c r="F4" s="2">
-        <v>45337</v>
+        <v>45344</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H4">
-        <v>7.6</v>
+        <v>10.38</v>
       </c>
       <c r="I4">
-        <v>7.6</v>
+        <v>8.75</v>
       </c>
       <c r="J4">
-        <v>7.6</v>
+        <v>9.94</v>
       </c>
       <c r="K4">
-        <v>8.4</v>
+        <v>10.38</v>
       </c>
       <c r="L4">
-        <v>1026</v>
+        <v>1015</v>
       </c>
       <c r="M4">
-        <v>1026</v>
+        <v>1015</v>
       </c>
       <c r="N4">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="O4">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="P4">
-        <v>-0.8</v>
+        <v>0.44</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="R4">
-        <v>1.23</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="S4">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="T4">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="U4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="V4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5">
-        <v>1708002000</v>
+        <v>1708617600</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -889,66 +898,66 @@
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>45337.54166666666</v>
+        <v>45344.66666666666</v>
       </c>
       <c r="F5" s="2">
-        <v>45337</v>
+        <v>45344</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H5">
-        <v>7.96</v>
+        <v>9.41</v>
       </c>
       <c r="I5">
-        <v>7.3</v>
+        <v>9.41</v>
       </c>
       <c r="J5">
-        <v>7.96</v>
+        <v>8.57</v>
       </c>
       <c r="K5">
-        <v>8.56</v>
+        <v>9.41</v>
       </c>
       <c r="L5">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="M5">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="N5">
-        <v>997</v>
+        <v>987</v>
       </c>
       <c r="O5">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P5">
-        <v>-0.6</v>
+        <v>0.84</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="R5">
-        <v>1.52</v>
+        <v>0.96</v>
       </c>
       <c r="S5">
-        <v>94</v>
+        <v>216</v>
       </c>
       <c r="T5">
-        <v>1.41</v>
+        <v>1.02</v>
       </c>
       <c r="U5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="V5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6">
-        <v>1708005600</v>
+        <v>1708621200</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>10000</v>
@@ -957,66 +966,66 @@
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>45337.58333333334</v>
+        <v>45344.70833333334</v>
       </c>
       <c r="F6" s="2">
-        <v>45337</v>
+        <v>45344</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H6">
-        <v>8.16</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="I6">
-        <v>7.67</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="J6">
-        <v>8.16</v>
+        <v>7.9</v>
       </c>
       <c r="K6">
-        <v>8.44</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="L6">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="M6">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="N6">
-        <v>997</v>
+        <v>987</v>
       </c>
       <c r="O6">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P6">
-        <v>-0.28</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="R6">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S6">
-        <v>86</v>
+        <v>223</v>
       </c>
       <c r="T6">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="U6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7">
-        <v>1708009200</v>
+        <v>1708624800</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>10000</v>
@@ -1025,63 +1034,63 @@
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>45337.625</v>
+        <v>45344.75</v>
       </c>
       <c r="F7" s="2">
-        <v>45337</v>
+        <v>45344</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H7">
-        <v>7.83</v>
+        <v>7.84</v>
       </c>
       <c r="I7">
-        <v>7.32</v>
+        <v>7.37</v>
       </c>
       <c r="J7">
-        <v>7.83</v>
+        <v>7.84</v>
       </c>
       <c r="K7">
-        <v>7.83</v>
+        <v>7.84</v>
       </c>
       <c r="L7">
-        <v>1025</v>
+        <v>1013</v>
       </c>
       <c r="M7">
-        <v>1025</v>
+        <v>1013</v>
       </c>
       <c r="N7">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="O7">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="R7">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="S7">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="T7">
-        <v>1.76</v>
+        <v>1.39</v>
       </c>
       <c r="U7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8">
-        <v>1708012800</v>
+        <v>1708628400</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -1093,63 +1102,63 @@
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>45337.66666666666</v>
+        <v>45344.79166666666</v>
       </c>
       <c r="F8" s="2">
-        <v>45337</v>
+        <v>45344</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H8">
-        <v>6.11</v>
+        <v>7.76</v>
       </c>
       <c r="I8">
-        <v>5.42</v>
+        <v>7.76</v>
       </c>
       <c r="J8">
-        <v>6.11</v>
+        <v>7.76</v>
       </c>
       <c r="K8">
-        <v>6.11</v>
+        <v>7.76</v>
       </c>
       <c r="L8">
-        <v>1025</v>
+        <v>1013</v>
       </c>
       <c r="M8">
-        <v>1025</v>
+        <v>1013</v>
       </c>
       <c r="N8">
-        <v>998</v>
+        <v>986</v>
       </c>
       <c r="O8">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="R8">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="S8">
-        <v>83</v>
+        <v>231</v>
       </c>
       <c r="T8">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="U8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="V8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9">
-        <v>1708016400</v>
+        <v>1708632000</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -1161,63 +1170,63 @@
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>45337.70833333334</v>
+        <v>45344.83333333334</v>
       </c>
       <c r="F9" s="2">
-        <v>45337</v>
+        <v>45344</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H9">
-        <v>5.53</v>
+        <v>7.59</v>
       </c>
       <c r="I9">
-        <v>5.53</v>
+        <v>6.85</v>
       </c>
       <c r="J9">
-        <v>5.53</v>
+        <v>7.59</v>
       </c>
       <c r="K9">
-        <v>5.53</v>
+        <v>7.59</v>
       </c>
       <c r="L9">
-        <v>1026</v>
+        <v>1012</v>
       </c>
       <c r="M9">
-        <v>1026</v>
+        <v>1012</v>
       </c>
       <c r="N9">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="O9">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="R9">
-        <v>0.78</v>
+        <v>1.54</v>
       </c>
       <c r="S9">
-        <v>68</v>
+        <v>224</v>
       </c>
       <c r="T9">
-        <v>1.02</v>
+        <v>1.58</v>
       </c>
       <c r="U9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="V9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10">
-        <v>1708020000</v>
+        <v>1708635600</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1229,63 +1238,63 @@
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>45337.75</v>
+        <v>45344.875</v>
       </c>
       <c r="F10" s="2">
-        <v>45337</v>
+        <v>45344</v>
       </c>
       <c r="G10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H10">
-        <v>5.12</v>
+        <v>7.31</v>
       </c>
       <c r="I10">
-        <v>5.12</v>
+        <v>6.59</v>
       </c>
       <c r="J10">
-        <v>5.12</v>
+        <v>7.31</v>
       </c>
       <c r="K10">
-        <v>5.12</v>
+        <v>7.31</v>
       </c>
       <c r="L10">
-        <v>1026</v>
+        <v>1012</v>
       </c>
       <c r="M10">
-        <v>1026</v>
+        <v>1012</v>
       </c>
       <c r="N10">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="O10">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="R10">
-        <v>0.28</v>
+        <v>1.49</v>
       </c>
       <c r="S10">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="T10">
-        <v>0.8100000000000001</v>
+        <v>1.51</v>
       </c>
       <c r="U10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="V10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11">
-        <v>1708023600</v>
+        <v>1708639200</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1297,63 +1306,63 @@
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>45337.79166666666</v>
+        <v>45344.91666666666</v>
       </c>
       <c r="F11" s="2">
-        <v>45337</v>
+        <v>45344</v>
       </c>
       <c r="G11">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H11">
-        <v>4.74</v>
+        <v>7.1</v>
       </c>
       <c r="I11">
-        <v>4.74</v>
+        <v>7.1</v>
       </c>
       <c r="J11">
-        <v>4.74</v>
+        <v>7.1</v>
       </c>
       <c r="K11">
-        <v>4.74</v>
+        <v>7.1</v>
       </c>
       <c r="L11">
-        <v>1026</v>
+        <v>1012</v>
       </c>
       <c r="M11">
-        <v>1026</v>
+        <v>1012</v>
       </c>
       <c r="N11">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="O11">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R11">
-        <v>0.46</v>
+        <v>0.8</v>
       </c>
       <c r="S11">
-        <v>15</v>
+        <v>247</v>
       </c>
       <c r="T11">
-        <v>0.8</v>
+        <v>1.03</v>
       </c>
       <c r="U11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="V11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12">
-        <v>1708027200</v>
+        <v>1708642800</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -1365,63 +1374,63 @@
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>45337.83333333334</v>
+        <v>45344.95833333334</v>
       </c>
       <c r="F12" s="2">
-        <v>45337</v>
+        <v>45344</v>
       </c>
       <c r="G12">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H12">
-        <v>4.38</v>
+        <v>7.13</v>
       </c>
       <c r="I12">
-        <v>4.38</v>
+        <v>7.13</v>
       </c>
       <c r="J12">
-        <v>4.38</v>
+        <v>7.13</v>
       </c>
       <c r="K12">
-        <v>4.38</v>
+        <v>7.13</v>
       </c>
       <c r="L12">
-        <v>1026</v>
+        <v>1012</v>
       </c>
       <c r="M12">
-        <v>1026</v>
+        <v>1012</v>
       </c>
       <c r="N12">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="O12">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R12">
-        <v>0.41</v>
+        <v>0.92</v>
       </c>
       <c r="S12">
-        <v>9</v>
+        <v>210</v>
       </c>
       <c r="T12">
-        <v>0.79</v>
+        <v>1.05</v>
       </c>
       <c r="U12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="V12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13">
-        <v>1708030800</v>
+        <v>1708646400</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -1433,63 +1442,63 @@
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>45337.875</v>
+        <v>45345</v>
       </c>
       <c r="F13" s="2">
-        <v>45337</v>
+        <v>45345</v>
       </c>
       <c r="G13">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>4.04</v>
+        <v>6.98</v>
       </c>
       <c r="I13">
-        <v>4.04</v>
+        <v>6.98</v>
       </c>
       <c r="J13">
-        <v>4.04</v>
+        <v>6.98</v>
       </c>
       <c r="K13">
-        <v>4.04</v>
+        <v>6.98</v>
       </c>
       <c r="L13">
-        <v>1026</v>
+        <v>1012</v>
       </c>
       <c r="M13">
-        <v>1026</v>
+        <v>1012</v>
       </c>
       <c r="N13">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="O13">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R13">
-        <v>0.3</v>
+        <v>1.06</v>
       </c>
       <c r="S13">
-        <v>356</v>
+        <v>227</v>
       </c>
       <c r="T13">
-        <v>0.63</v>
+        <v>1.12</v>
       </c>
       <c r="U13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="V13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14">
-        <v>1708034400</v>
+        <v>1708650000</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
@@ -1501,63 +1510,63 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>45337.91666666666</v>
+        <v>45345.04166666666</v>
       </c>
       <c r="F14" s="2">
-        <v>45337</v>
+        <v>45345</v>
       </c>
       <c r="G14">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>3.72</v>
+        <v>6.33</v>
       </c>
       <c r="I14">
-        <v>3.72</v>
+        <v>6.33</v>
       </c>
       <c r="J14">
-        <v>3.72</v>
+        <v>6.33</v>
       </c>
       <c r="K14">
-        <v>3.72</v>
+        <v>6.33</v>
       </c>
       <c r="L14">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="M14">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="N14">
-        <v>998</v>
+        <v>984</v>
       </c>
       <c r="O14">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R14">
-        <v>0.29</v>
+        <v>1.11</v>
       </c>
       <c r="S14">
-        <v>11</v>
+        <v>244</v>
       </c>
       <c r="T14">
-        <v>0.63</v>
+        <v>1.18</v>
       </c>
       <c r="U14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="V14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="A15">
-        <v>1708038000</v>
+        <v>1708653600</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
@@ -1569,63 +1578,63 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>45337.95833333334</v>
+        <v>45345.08333333334</v>
       </c>
       <c r="F15" s="2">
-        <v>45337</v>
+        <v>45345</v>
       </c>
       <c r="G15">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>3.41</v>
+        <v>5.92</v>
       </c>
       <c r="I15">
-        <v>3.41</v>
+        <v>5.92</v>
       </c>
       <c r="J15">
-        <v>3.41</v>
+        <v>5.92</v>
       </c>
       <c r="K15">
-        <v>3.41</v>
+        <v>5.92</v>
       </c>
       <c r="L15">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="M15">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="N15">
-        <v>999</v>
+        <v>984</v>
       </c>
       <c r="O15">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R15">
-        <v>0.3</v>
+        <v>0.63</v>
       </c>
       <c r="S15">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="T15">
-        <v>0.5600000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="U15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="V15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:22">
       <c r="A16">
-        <v>1708041600</v>
+        <v>1708657200</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
@@ -1637,63 +1646,63 @@
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>45338</v>
+        <v>45345.125</v>
       </c>
       <c r="F16" s="2">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>3.13</v>
+        <v>5.78</v>
       </c>
       <c r="I16">
-        <v>3.13</v>
+        <v>5.78</v>
       </c>
       <c r="J16">
-        <v>3.13</v>
+        <v>5.78</v>
       </c>
       <c r="K16">
-        <v>3.13</v>
+        <v>5.78</v>
       </c>
       <c r="L16">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="M16">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="N16">
-        <v>999</v>
+        <v>983</v>
       </c>
       <c r="O16">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="R16">
-        <v>0.34</v>
+        <v>0.51</v>
       </c>
       <c r="S16">
-        <v>350</v>
+        <v>215</v>
       </c>
       <c r="T16">
-        <v>0.52</v>
+        <v>0.89</v>
       </c>
       <c r="U16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="V16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:22">
       <c r="A17">
-        <v>1708045200</v>
+        <v>1708660800</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -1705,63 +1714,63 @@
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>45338.04166666666</v>
+        <v>45345.16666666666</v>
       </c>
       <c r="F17" s="2">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H17">
-        <v>2.84</v>
+        <v>5.76</v>
       </c>
       <c r="I17">
-        <v>2.84</v>
+        <v>5.76</v>
       </c>
       <c r="J17">
-        <v>2.84</v>
+        <v>5.76</v>
       </c>
       <c r="K17">
-        <v>2.84</v>
+        <v>5.76</v>
       </c>
       <c r="L17">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="M17">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="N17">
-        <v>998</v>
+        <v>983</v>
       </c>
       <c r="O17">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R17">
-        <v>0.28</v>
+        <v>0.96</v>
       </c>
       <c r="S17">
-        <v>350</v>
+        <v>275</v>
       </c>
       <c r="T17">
-        <v>0.41</v>
+        <v>0.95</v>
       </c>
       <c r="U17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="V17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:22">
       <c r="A18">
-        <v>1708048800</v>
+        <v>1708664400</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
@@ -1773,66 +1782,66 @@
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>45338.08333333334</v>
+        <v>45345.20833333334</v>
       </c>
       <c r="F18" s="2">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H18">
-        <v>2.55</v>
+        <v>5.73</v>
       </c>
       <c r="I18">
-        <v>2.55</v>
+        <v>5.73</v>
       </c>
       <c r="J18">
-        <v>2.55</v>
+        <v>5.73</v>
       </c>
       <c r="K18">
-        <v>2.55</v>
+        <v>5.73</v>
       </c>
       <c r="L18">
-        <v>1026</v>
+        <v>1010</v>
       </c>
       <c r="M18">
-        <v>1026</v>
+        <v>1010</v>
       </c>
       <c r="N18">
-        <v>998</v>
+        <v>983</v>
       </c>
       <c r="O18">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="R18">
-        <v>0.26</v>
+        <v>1.27</v>
       </c>
       <c r="S18">
-        <v>32</v>
+        <v>245</v>
       </c>
       <c r="T18">
-        <v>0.43</v>
+        <v>1.22</v>
       </c>
       <c r="U18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="V18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:22">
       <c r="A19">
-        <v>1708052400</v>
+        <v>1708668000</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>10000</v>
@@ -1841,66 +1850,66 @@
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>45338.125</v>
+        <v>45345.25</v>
       </c>
       <c r="F19" s="2">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H19">
-        <v>2.32</v>
+        <v>5.99</v>
       </c>
       <c r="I19">
-        <v>2.32</v>
+        <v>5.29</v>
       </c>
       <c r="J19">
-        <v>2.32</v>
+        <v>5.99</v>
       </c>
       <c r="K19">
-        <v>2.32</v>
+        <v>5.99</v>
       </c>
       <c r="L19">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="M19">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="N19">
-        <v>998</v>
+        <v>984</v>
       </c>
       <c r="O19">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="R19">
-        <v>0.27</v>
+        <v>1.34</v>
       </c>
       <c r="S19">
-        <v>36</v>
+        <v>235</v>
       </c>
       <c r="T19">
-        <v>0.55</v>
+        <v>1.32</v>
       </c>
       <c r="U19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="V19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:22">
       <c r="A20">
-        <v>1708056000</v>
+        <v>1708671600</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>10000</v>
@@ -1909,66 +1918,66 @@
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>45338.16666666666</v>
+        <v>45345.29166666666</v>
       </c>
       <c r="F20" s="2">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H20">
-        <v>2.16</v>
+        <v>7.39</v>
       </c>
       <c r="I20">
-        <v>2.16</v>
+        <v>7.39</v>
       </c>
       <c r="J20">
-        <v>2.16</v>
+        <v>7.39</v>
       </c>
       <c r="K20">
-        <v>2.16</v>
+        <v>7.39</v>
       </c>
       <c r="L20">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="M20">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="N20">
-        <v>998</v>
+        <v>984</v>
       </c>
       <c r="O20">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="R20">
-        <v>0.53</v>
+        <v>1.05</v>
       </c>
       <c r="S20">
-        <v>29</v>
+        <v>236</v>
       </c>
       <c r="T20">
-        <v>0.59</v>
+        <v>1.46</v>
       </c>
       <c r="U20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="V20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:22">
       <c r="A21">
-        <v>1708059600</v>
+        <v>1708675200</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21">
         <v>10000</v>
@@ -1977,63 +1986,63 @@
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>45338.20833333334</v>
+        <v>45345.33333333334</v>
       </c>
       <c r="F21" s="2">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H21">
-        <v>2.04</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="I21">
-        <v>2.04</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="J21">
-        <v>2.04</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="K21">
-        <v>2.04</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="L21">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="M21">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="N21">
-        <v>998</v>
+        <v>984</v>
       </c>
       <c r="O21">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="R21">
-        <v>0.66</v>
+        <v>0.76</v>
       </c>
       <c r="S21">
-        <v>43</v>
+        <v>214</v>
       </c>
       <c r="T21">
-        <v>0.74</v>
+        <v>1.38</v>
       </c>
       <c r="U21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="V21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:22">
       <c r="A22">
-        <v>1708063200</v>
+        <v>1708678800</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -2045,63 +2054,63 @@
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>45338.25</v>
+        <v>45345.375</v>
       </c>
       <c r="F22" s="2">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="G22">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H22">
-        <v>2.29</v>
+        <v>9.75</v>
       </c>
       <c r="I22">
-        <v>2.29</v>
+        <v>9.75</v>
       </c>
       <c r="J22">
-        <v>2.29</v>
+        <v>9.75</v>
       </c>
       <c r="K22">
-        <v>2.29</v>
+        <v>9.75</v>
       </c>
       <c r="L22">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="M22">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="N22">
-        <v>999</v>
+        <v>984</v>
       </c>
       <c r="O22">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="R22">
-        <v>0.66</v>
+        <v>0.77</v>
       </c>
       <c r="S22">
-        <v>55</v>
+        <v>189</v>
       </c>
       <c r="T22">
-        <v>0.71</v>
+        <v>1.41</v>
       </c>
       <c r="U22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="V22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:22">
       <c r="A23">
-        <v>1708066800</v>
+        <v>1708682400</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -2113,63 +2122,63 @@
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>45338.29166666666</v>
+        <v>45345.41666666666</v>
       </c>
       <c r="F23" s="2">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="G23">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H23">
-        <v>3.89</v>
+        <v>10.75</v>
       </c>
       <c r="I23">
-        <v>3.89</v>
+        <v>9.19</v>
       </c>
       <c r="J23">
-        <v>3.89</v>
+        <v>10.75</v>
       </c>
       <c r="K23">
-        <v>3.89</v>
+        <v>10.75</v>
       </c>
       <c r="L23">
-        <v>1027</v>
+        <v>1011</v>
       </c>
       <c r="M23">
-        <v>1027</v>
+        <v>1011</v>
       </c>
       <c r="N23">
-        <v>999</v>
+        <v>984</v>
       </c>
       <c r="O23">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R23">
-        <v>0.71</v>
+        <v>0.88</v>
       </c>
       <c r="S23">
+        <v>205</v>
+      </c>
+      <c r="T23">
+        <v>1.99</v>
+      </c>
+      <c r="U23" t="s">
+        <v>27</v>
+      </c>
+      <c r="V23" t="s">
         <v>50</v>
-      </c>
-      <c r="T23">
-        <v>0.95</v>
-      </c>
-      <c r="U23" t="s">
-        <v>24</v>
-      </c>
-      <c r="V23" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:22">
       <c r="A24">
-        <v>1708070400</v>
+        <v>1708686000</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -2181,63 +2190,63 @@
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>45338.33333333334</v>
+        <v>45345.45833333334</v>
       </c>
       <c r="F24" s="2">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="G24">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H24">
-        <v>5.45</v>
+        <v>11.63</v>
       </c>
       <c r="I24">
-        <v>5.45</v>
+        <v>10.08</v>
       </c>
       <c r="J24">
-        <v>5.45</v>
+        <v>11.63</v>
       </c>
       <c r="K24">
-        <v>5.45</v>
+        <v>11.63</v>
       </c>
       <c r="L24">
-        <v>1026</v>
+        <v>1010</v>
       </c>
       <c r="M24">
-        <v>1026</v>
+        <v>1010</v>
       </c>
       <c r="N24">
-        <v>999</v>
+        <v>984</v>
       </c>
       <c r="O24">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="R24">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="S24">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="T24">
-        <v>1.27</v>
+        <v>2.35</v>
       </c>
       <c r="U24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="V24" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:22">
       <c r="A25">
-        <v>1708074000</v>
+        <v>1708689600</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -2249,63 +2258,63 @@
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>45338.375</v>
+        <v>45345.5</v>
       </c>
       <c r="F25" s="2">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="G25">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H25">
-        <v>6.79</v>
+        <v>12.38</v>
       </c>
       <c r="I25">
-        <v>6.19</v>
+        <v>10.85</v>
       </c>
       <c r="J25">
-        <v>6.79</v>
+        <v>12.38</v>
       </c>
       <c r="K25">
-        <v>6.79</v>
+        <v>12.38</v>
       </c>
       <c r="L25">
-        <v>1026</v>
+        <v>1010</v>
       </c>
       <c r="M25">
-        <v>1026</v>
+        <v>1010</v>
       </c>
       <c r="N25">
-        <v>999</v>
+        <v>983</v>
       </c>
       <c r="O25">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="R25">
-        <v>1.34</v>
+        <v>1.8</v>
       </c>
       <c r="S25">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="T25">
-        <v>1.46</v>
+        <v>3.41</v>
       </c>
       <c r="U25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="V25" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:22">
       <c r="A26">
-        <v>1708077600</v>
+        <v>1708693200</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -2317,63 +2326,63 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>45338.41666666666</v>
+        <v>45345.54166666666</v>
       </c>
       <c r="F26" s="2">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="G26">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H26">
-        <v>7.97</v>
+        <v>12.8</v>
       </c>
       <c r="I26">
-        <v>7.4</v>
+        <v>11.31</v>
       </c>
       <c r="J26">
-        <v>7.97</v>
+        <v>12.8</v>
       </c>
       <c r="K26">
-        <v>7.97</v>
+        <v>12.8</v>
       </c>
       <c r="L26">
-        <v>1026</v>
+        <v>1010</v>
       </c>
       <c r="M26">
-        <v>1026</v>
+        <v>1010</v>
       </c>
       <c r="N26">
-        <v>999</v>
+        <v>983</v>
       </c>
       <c r="O26">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="R26">
-        <v>1.44</v>
+        <v>1.79</v>
       </c>
       <c r="S26">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="T26">
-        <v>1.44</v>
+        <v>3.47</v>
       </c>
       <c r="U26" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="V26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:22">
       <c r="A27">
-        <v>1708081200</v>
+        <v>1708696800</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
@@ -2385,63 +2394,63 @@
         <v>0</v>
       </c>
       <c r="E27" s="2">
-        <v>45338.45833333334</v>
+        <v>45345.58333333334</v>
       </c>
       <c r="F27" s="2">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="G27">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H27">
-        <v>8.9</v>
+        <v>12.75</v>
       </c>
       <c r="I27">
-        <v>8.27</v>
+        <v>11.31</v>
       </c>
       <c r="J27">
-        <v>8.9</v>
+        <v>12.75</v>
       </c>
       <c r="K27">
-        <v>8.9</v>
+        <v>12.75</v>
       </c>
       <c r="L27">
-        <v>1025</v>
+        <v>1010</v>
       </c>
       <c r="M27">
-        <v>1025</v>
+        <v>1010</v>
       </c>
       <c r="N27">
-        <v>998</v>
+        <v>984</v>
       </c>
       <c r="O27">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="R27">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="S27">
-        <v>85</v>
+        <v>229</v>
       </c>
       <c r="T27">
-        <v>1.53</v>
+        <v>3.15</v>
       </c>
       <c r="U27" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="V27" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:22">
       <c r="A28">
-        <v>1708084800</v>
+        <v>1708700400</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
@@ -2453,66 +2462,66 @@
         <v>0</v>
       </c>
       <c r="E28" s="2">
-        <v>45338.5</v>
+        <v>45345.625</v>
       </c>
       <c r="F28" s="2">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="G28">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H28">
-        <v>9.59</v>
+        <v>11.99</v>
       </c>
       <c r="I28">
-        <v>9.119999999999999</v>
+        <v>10.65</v>
       </c>
       <c r="J28">
-        <v>9.59</v>
+        <v>11.99</v>
       </c>
       <c r="K28">
-        <v>9.59</v>
+        <v>11.99</v>
       </c>
       <c r="L28">
-        <v>1025</v>
+        <v>1010</v>
       </c>
       <c r="M28">
-        <v>1025</v>
+        <v>1010</v>
       </c>
       <c r="N28">
-        <v>997</v>
+        <v>983</v>
       </c>
       <c r="O28">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="R28">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="S28">
-        <v>90</v>
+        <v>226</v>
       </c>
       <c r="T28">
-        <v>1.4</v>
+        <v>1.79</v>
       </c>
       <c r="U28" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="V28" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:22">
       <c r="A29">
-        <v>1708088400</v>
+        <v>1708704000</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C29">
         <v>10000</v>
@@ -2521,202 +2530,202 @@
         <v>0</v>
       </c>
       <c r="E29" s="2">
-        <v>45338.54166666666</v>
+        <v>45345.66666666666</v>
       </c>
       <c r="F29" s="2">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="G29">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H29">
-        <v>9.949999999999999</v>
+        <v>9.94</v>
       </c>
       <c r="I29">
-        <v>9.949999999999999</v>
+        <v>9.94</v>
       </c>
       <c r="J29">
-        <v>9.949999999999999</v>
+        <v>9.94</v>
       </c>
       <c r="K29">
-        <v>9.949999999999999</v>
+        <v>9.94</v>
       </c>
       <c r="L29">
-        <v>1024</v>
+        <v>1010</v>
       </c>
       <c r="M29">
-        <v>1024</v>
+        <v>1010</v>
       </c>
       <c r="N29">
-        <v>997</v>
+        <v>984</v>
       </c>
       <c r="O29">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="R29">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="S29">
-        <v>88</v>
+        <v>249</v>
       </c>
       <c r="T29">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="U29" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="V29" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:22">
       <c r="A30">
-        <v>1708092000</v>
+        <v>1708707600</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C30">
         <v>10000</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E30" s="2">
-        <v>45338.58333333334</v>
+        <v>45345.70833333334</v>
       </c>
       <c r="F30" s="2">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="G30">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H30">
-        <v>9.92</v>
+        <v>9.17</v>
       </c>
       <c r="I30">
-        <v>9.92</v>
+        <v>9.17</v>
       </c>
       <c r="J30">
-        <v>9.92</v>
+        <v>9.17</v>
       </c>
       <c r="K30">
-        <v>9.92</v>
+        <v>9.17</v>
       </c>
       <c r="L30">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="M30">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="N30">
-        <v>997</v>
+        <v>984</v>
       </c>
       <c r="O30">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="R30">
-        <v>1.19</v>
+        <v>0.96</v>
       </c>
       <c r="S30">
-        <v>85</v>
+        <v>242</v>
       </c>
       <c r="T30">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U30" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V30" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:22">
       <c r="A31">
-        <v>1708095600</v>
+        <v>1708711200</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C31">
         <v>10000</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E31" s="2">
-        <v>45338.625</v>
+        <v>45345.75</v>
       </c>
       <c r="F31" s="2">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="G31">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H31">
-        <v>8.93</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="I31">
-        <v>8.93</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="J31">
-        <v>8.93</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="K31">
-        <v>8.93</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="L31">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="M31">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="N31">
-        <v>997</v>
+        <v>984</v>
       </c>
       <c r="O31">
+        <v>69</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>72</v>
+      </c>
+      <c r="R31">
+        <v>0.9</v>
+      </c>
+      <c r="S31">
+        <v>239</v>
+      </c>
+      <c r="T31">
+        <v>1.14</v>
+      </c>
+      <c r="U31" t="s">
+        <v>28</v>
+      </c>
+      <c r="V31" t="s">
         <v>58</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>1</v>
-      </c>
-      <c r="R31">
-        <v>1.08</v>
-      </c>
-      <c r="S31">
-        <v>72</v>
-      </c>
-      <c r="T31">
-        <v>1.24</v>
-      </c>
-      <c r="U31" t="s">
-        <v>24</v>
-      </c>
-      <c r="V31" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:22">
       <c r="A32">
-        <v>1708099200</v>
+        <v>1708714800</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C32">
         <v>10000</v>
@@ -2725,66 +2734,66 @@
         <v>0</v>
       </c>
       <c r="E32" s="2">
-        <v>45338.66666666666</v>
+        <v>45345.79166666666</v>
       </c>
       <c r="F32" s="2">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="G32">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H32">
-        <v>7.04</v>
+        <v>8.15</v>
       </c>
       <c r="I32">
-        <v>7.04</v>
+        <v>8.15</v>
       </c>
       <c r="J32">
-        <v>7.04</v>
+        <v>8.15</v>
       </c>
       <c r="K32">
-        <v>7.04</v>
+        <v>8.15</v>
       </c>
       <c r="L32">
-        <v>1024</v>
+        <v>1012</v>
       </c>
       <c r="M32">
-        <v>1024</v>
+        <v>1012</v>
       </c>
       <c r="N32">
-        <v>997</v>
+        <v>985</v>
       </c>
       <c r="O32">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="R32">
-        <v>0.88</v>
+        <v>1.02</v>
       </c>
       <c r="S32">
-        <v>43</v>
+        <v>245</v>
       </c>
       <c r="T32">
-        <v>1.04</v>
+        <v>1.24</v>
       </c>
       <c r="U32" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="V32" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:22">
       <c r="A33">
-        <v>1708102800</v>
+        <v>1708718400</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C33">
         <v>10000</v>
@@ -2793,66 +2802,66 @@
         <v>0</v>
       </c>
       <c r="E33" s="2">
-        <v>45338.70833333334</v>
+        <v>45345.83333333334</v>
       </c>
       <c r="F33" s="2">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="G33">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H33">
-        <v>6.39</v>
+        <v>7.77</v>
       </c>
       <c r="I33">
-        <v>6.39</v>
+        <v>7.77</v>
       </c>
       <c r="J33">
-        <v>6.39</v>
+        <v>7.77</v>
       </c>
       <c r="K33">
-        <v>6.39</v>
+        <v>7.77</v>
       </c>
       <c r="L33">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="M33">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="N33">
-        <v>997</v>
+        <v>985</v>
       </c>
       <c r="O33">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="P33">
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="R33">
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="S33">
-        <v>9</v>
+        <v>231</v>
       </c>
       <c r="T33">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="U33" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="V33" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:22">
       <c r="A34">
-        <v>1708106400</v>
+        <v>1708722000</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C34">
         <v>10000</v>
@@ -2861,66 +2870,66 @@
         <v>0</v>
       </c>
       <c r="E34" s="2">
-        <v>45338.75</v>
+        <v>45345.875</v>
       </c>
       <c r="F34" s="2">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="G34">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H34">
-        <v>5.92</v>
+        <v>7.49</v>
       </c>
       <c r="I34">
-        <v>5.92</v>
+        <v>7.49</v>
       </c>
       <c r="J34">
-        <v>5.92</v>
+        <v>7.49</v>
       </c>
       <c r="K34">
-        <v>5.92</v>
+        <v>7.49</v>
       </c>
       <c r="L34">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="M34">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="N34">
-        <v>997</v>
+        <v>985</v>
       </c>
       <c r="O34">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="R34">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="S34">
-        <v>357</v>
+        <v>126</v>
       </c>
       <c r="T34">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="U34" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="V34" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:22">
       <c r="A35">
-        <v>1708110000</v>
+        <v>1708725600</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C35">
         <v>10000</v>
@@ -2929,134 +2938,134 @@
         <v>0</v>
       </c>
       <c r="E35" s="2">
-        <v>45338.79166666666</v>
+        <v>45345.91666666666</v>
       </c>
       <c r="F35" s="2">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="G35">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H35">
-        <v>5.55</v>
+        <v>7.14</v>
       </c>
       <c r="I35">
-        <v>5.55</v>
+        <v>7.14</v>
       </c>
       <c r="J35">
-        <v>5.55</v>
+        <v>7.14</v>
       </c>
       <c r="K35">
-        <v>5.55</v>
+        <v>7.14</v>
       </c>
       <c r="L35">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="M35">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="N35">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="O35">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="P35">
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="R35">
-        <v>0.53</v>
+        <v>0.41</v>
       </c>
       <c r="S35">
-        <v>343</v>
+        <v>96</v>
       </c>
       <c r="T35">
-        <v>0.67</v>
+        <v>0.99</v>
       </c>
       <c r="U35" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="V35" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:22">
       <c r="A36">
-        <v>1708113600</v>
+        <v>1708729200</v>
       </c>
       <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36">
+        <v>10000</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45345.95833333334</v>
+      </c>
+      <c r="F36" s="2">
+        <v>45345</v>
+      </c>
+      <c r="G36">
         <v>23</v>
       </c>
-      <c r="C36">
-        <v>10000</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36" s="2">
-        <v>45338.83333333334</v>
-      </c>
-      <c r="F36" s="2">
-        <v>45338</v>
-      </c>
-      <c r="G36">
-        <v>20</v>
-      </c>
       <c r="H36">
-        <v>5.22</v>
+        <v>6.97</v>
       </c>
       <c r="I36">
-        <v>5.22</v>
+        <v>6.97</v>
       </c>
       <c r="J36">
-        <v>5.22</v>
+        <v>6.97</v>
       </c>
       <c r="K36">
-        <v>5.22</v>
+        <v>6.97</v>
       </c>
       <c r="L36">
-        <v>1026</v>
+        <v>1012</v>
       </c>
       <c r="M36">
-        <v>1026</v>
+        <v>1012</v>
       </c>
       <c r="N36">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="O36">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P36">
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="R36">
-        <v>0.32</v>
+        <v>0.21</v>
       </c>
       <c r="S36">
-        <v>350</v>
+        <v>10</v>
       </c>
       <c r="T36">
-        <v>0.61</v>
+        <v>0.87</v>
       </c>
       <c r="U36" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="V36" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:22">
       <c r="A37">
-        <v>1708117200</v>
+        <v>1708732800</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C37">
         <v>10000</v>
@@ -3065,63 +3074,63 @@
         <v>0</v>
       </c>
       <c r="E37" s="2">
-        <v>45338.875</v>
+        <v>45346</v>
       </c>
       <c r="F37" s="2">
-        <v>45338</v>
+        <v>45346</v>
       </c>
       <c r="G37">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>4.9</v>
+        <v>6.96</v>
       </c>
       <c r="I37">
-        <v>4.9</v>
+        <v>6.96</v>
       </c>
       <c r="J37">
-        <v>4.9</v>
+        <v>6.96</v>
       </c>
       <c r="K37">
-        <v>4.9</v>
+        <v>6.96</v>
       </c>
       <c r="L37">
-        <v>1025</v>
+        <v>1011</v>
       </c>
       <c r="M37">
-        <v>1025</v>
+        <v>1011</v>
       </c>
       <c r="N37">
-        <v>998</v>
+        <v>984</v>
       </c>
       <c r="O37">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P37">
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R37">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="S37">
-        <v>293</v>
+        <v>54</v>
       </c>
       <c r="T37">
-        <v>0.6</v>
+        <v>0.97</v>
       </c>
       <c r="U37" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="V37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:22">
       <c r="A38">
-        <v>1708120800</v>
+        <v>1708736400</v>
       </c>
       <c r="B38" t="s">
         <v>23</v>
@@ -3133,63 +3142,63 @@
         <v>0</v>
       </c>
       <c r="E38" s="2">
-        <v>45338.91666666666</v>
+        <v>45346.04166666666</v>
       </c>
       <c r="F38" s="2">
-        <v>45338</v>
+        <v>45346</v>
       </c>
       <c r="G38">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>4.6</v>
+        <v>6.84</v>
       </c>
       <c r="I38">
-        <v>4.6</v>
+        <v>6.84</v>
       </c>
       <c r="J38">
-        <v>4.6</v>
+        <v>6.84</v>
       </c>
       <c r="K38">
-        <v>4.6</v>
+        <v>6.84</v>
       </c>
       <c r="L38">
-        <v>1025</v>
+        <v>1011</v>
       </c>
       <c r="M38">
-        <v>1025</v>
+        <v>1011</v>
       </c>
       <c r="N38">
-        <v>998</v>
+        <v>984</v>
       </c>
       <c r="O38">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P38">
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="R38">
-        <v>0.35</v>
+        <v>0.75</v>
       </c>
       <c r="S38">
-        <v>290</v>
+        <v>342</v>
       </c>
       <c r="T38">
-        <v>0.47</v>
+        <v>0.96</v>
       </c>
       <c r="U38" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="V38" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:22">
       <c r="A39">
-        <v>1708124400</v>
+        <v>1708740000</v>
       </c>
       <c r="B39" t="s">
         <v>23</v>
@@ -3201,63 +3210,63 @@
         <v>0</v>
       </c>
       <c r="E39" s="2">
-        <v>45338.95833333334</v>
+        <v>45346.08333333334</v>
       </c>
       <c r="F39" s="2">
-        <v>45338</v>
+        <v>45346</v>
       </c>
       <c r="G39">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="H39">
-        <v>4.29</v>
+        <v>6.68</v>
       </c>
       <c r="I39">
-        <v>4.29</v>
+        <v>6.68</v>
       </c>
       <c r="J39">
-        <v>4.29</v>
+        <v>6.68</v>
       </c>
       <c r="K39">
-        <v>4.29</v>
+        <v>6.68</v>
       </c>
       <c r="L39">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="M39">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="N39">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="O39">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P39">
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="R39">
-        <v>0.26</v>
+        <v>1.01</v>
       </c>
       <c r="S39">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="T39">
-        <v>0.4</v>
+        <v>0.99</v>
       </c>
       <c r="U39" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="V39" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:22">
       <c r="A40">
-        <v>1708128000</v>
+        <v>1708743600</v>
       </c>
       <c r="B40" t="s">
         <v>23</v>
@@ -3269,63 +3278,63 @@
         <v>0</v>
       </c>
       <c r="E40" s="2">
-        <v>45339</v>
+        <v>45346.125</v>
       </c>
       <c r="F40" s="2">
-        <v>45339</v>
+        <v>45346</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H40">
-        <v>3.99</v>
+        <v>6.7</v>
       </c>
       <c r="I40">
-        <v>3.99</v>
+        <v>6.7</v>
       </c>
       <c r="J40">
-        <v>3.99</v>
+        <v>6.7</v>
       </c>
       <c r="K40">
-        <v>3.99</v>
+        <v>6.7</v>
       </c>
       <c r="L40">
-        <v>1026</v>
+        <v>1012</v>
       </c>
       <c r="M40">
-        <v>1026</v>
+        <v>1012</v>
       </c>
       <c r="N40">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="O40">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P40">
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="R40">
-        <v>0.48</v>
+        <v>1.22</v>
       </c>
       <c r="S40">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="T40">
-        <v>0.5600000000000001</v>
+        <v>1.23</v>
       </c>
       <c r="U40" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="V40" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:22">
       <c r="A41">
-        <v>1708131600</v>
+        <v>1708747200</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
@@ -3337,63 +3346,63 @@
         <v>0</v>
       </c>
       <c r="E41" s="2">
-        <v>45339.04166666666</v>
+        <v>45346.16666666666</v>
       </c>
       <c r="F41" s="2">
-        <v>45339</v>
+        <v>45346</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H41">
-        <v>3.72</v>
+        <v>6.6</v>
       </c>
       <c r="I41">
-        <v>3.72</v>
+        <v>6.6</v>
       </c>
       <c r="J41">
-        <v>3.72</v>
+        <v>6.6</v>
       </c>
       <c r="K41">
-        <v>3.72</v>
+        <v>6.6</v>
       </c>
       <c r="L41">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="M41">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="N41">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="O41">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P41">
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="R41">
-        <v>0.6899999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="S41">
-        <v>266</v>
+        <v>191</v>
       </c>
       <c r="T41">
-        <v>0.6899999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="U41" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="V41" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:22">
       <c r="A42">
-        <v>1708135200</v>
+        <v>1708750800</v>
       </c>
       <c r="B42" t="s">
         <v>23</v>
@@ -3405,66 +3414,66 @@
         <v>0</v>
       </c>
       <c r="E42" s="2">
-        <v>45339.08333333334</v>
+        <v>45346.20833333334</v>
       </c>
       <c r="F42" s="2">
-        <v>45339</v>
+        <v>45346</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H42">
-        <v>3.5</v>
+        <v>6.66</v>
       </c>
       <c r="I42">
-        <v>3.5</v>
+        <v>6.66</v>
       </c>
       <c r="J42">
-        <v>3.5</v>
+        <v>6.66</v>
       </c>
       <c r="K42">
-        <v>3.5</v>
+        <v>6.66</v>
       </c>
       <c r="L42">
-        <v>1025</v>
+        <v>1013</v>
       </c>
       <c r="M42">
-        <v>1025</v>
+        <v>1013</v>
       </c>
       <c r="N42">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="O42">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P42">
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="R42">
-        <v>0.85</v>
+        <v>0.53</v>
       </c>
       <c r="S42">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="T42">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="U42" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="V42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:22">
       <c r="A43">
-        <v>1708138800</v>
+        <v>1708754400</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C43">
         <v>10000</v>
@@ -3473,66 +3482,66 @@
         <v>0</v>
       </c>
       <c r="E43" s="2">
-        <v>45339.125</v>
+        <v>45346.25</v>
       </c>
       <c r="F43" s="2">
-        <v>45339</v>
+        <v>45346</v>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H43">
-        <v>3.21</v>
+        <v>7.28</v>
       </c>
       <c r="I43">
-        <v>3.21</v>
+        <v>7.28</v>
       </c>
       <c r="J43">
-        <v>3.21</v>
+        <v>7.28</v>
       </c>
       <c r="K43">
-        <v>3.21</v>
+        <v>7.28</v>
       </c>
       <c r="L43">
-        <v>1025</v>
+        <v>1013</v>
       </c>
       <c r="M43">
-        <v>1025</v>
+        <v>1013</v>
       </c>
       <c r="N43">
-        <v>998</v>
+        <v>986</v>
       </c>
       <c r="O43">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P43">
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="R43">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="S43">
-        <v>229</v>
+        <v>114</v>
       </c>
       <c r="T43">
-        <v>0.6</v>
+        <v>1.05</v>
       </c>
       <c r="U43" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="V43" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:22">
       <c r="A44">
-        <v>1708142400</v>
+        <v>1708758000</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C44">
         <v>10000</v>
@@ -3541,66 +3550,66 @@
         <v>0</v>
       </c>
       <c r="E44" s="2">
-        <v>45339.16666666666</v>
+        <v>45346.29166666666</v>
       </c>
       <c r="F44" s="2">
-        <v>45339</v>
+        <v>45346</v>
       </c>
       <c r="G44">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H44">
-        <v>3.01</v>
+        <v>8.91</v>
       </c>
       <c r="I44">
-        <v>3.01</v>
+        <v>8.91</v>
       </c>
       <c r="J44">
-        <v>3.01</v>
+        <v>8.91</v>
       </c>
       <c r="K44">
-        <v>3.01</v>
+        <v>8.91</v>
       </c>
       <c r="L44">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="M44">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="N44">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="O44">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="P44">
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="R44">
-        <v>0.87</v>
+        <v>0.47</v>
       </c>
       <c r="S44">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="T44">
-        <v>0.88</v>
+        <v>1.09</v>
       </c>
       <c r="U44" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="V44" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:22">
       <c r="A45">
-        <v>1708146000</v>
+        <v>1708761600</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C45">
         <v>10000</v>
@@ -3609,63 +3618,63 @@
         <v>0</v>
       </c>
       <c r="E45" s="2">
-        <v>45339.20833333334</v>
+        <v>45346.33333333334</v>
       </c>
       <c r="F45" s="2">
-        <v>45339</v>
+        <v>45346</v>
       </c>
       <c r="G45">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H45">
-        <v>2.84</v>
+        <v>10.58</v>
       </c>
       <c r="I45">
-        <v>2.84</v>
+        <v>9.31</v>
       </c>
       <c r="J45">
-        <v>2.84</v>
+        <v>10.58</v>
       </c>
       <c r="K45">
-        <v>2.84</v>
+        <v>10.58</v>
       </c>
       <c r="L45">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="M45">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="N45">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="O45">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="P45">
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="R45">
-        <v>0.77</v>
+        <v>0.19</v>
       </c>
       <c r="S45">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="T45">
-        <v>0.78</v>
+        <v>1.14</v>
       </c>
       <c r="U45" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="V45" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:22">
       <c r="A46">
-        <v>1708149600</v>
+        <v>1708765200</v>
       </c>
       <c r="B46" t="s">
         <v>22</v>
@@ -3677,63 +3686,63 @@
         <v>0</v>
       </c>
       <c r="E46" s="2">
-        <v>45339.25</v>
+        <v>45346.375</v>
       </c>
       <c r="F46" s="2">
-        <v>45339</v>
+        <v>45346</v>
       </c>
       <c r="G46">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H46">
-        <v>3.14</v>
+        <v>11.88</v>
       </c>
       <c r="I46">
-        <v>3.14</v>
+        <v>10.61</v>
       </c>
       <c r="J46">
-        <v>3.14</v>
+        <v>11.88</v>
       </c>
       <c r="K46">
-        <v>3.14</v>
+        <v>11.88</v>
       </c>
       <c r="L46">
-        <v>1026</v>
+        <v>1014</v>
       </c>
       <c r="M46">
-        <v>1026</v>
+        <v>1014</v>
       </c>
       <c r="N46">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="O46">
+        <v>57</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>100</v>
+      </c>
+      <c r="R46">
+        <v>0.34</v>
+      </c>
+      <c r="S46">
+        <v>122</v>
+      </c>
+      <c r="T46">
+        <v>1.39</v>
+      </c>
+      <c r="U46" t="s">
+        <v>27</v>
+      </c>
+      <c r="V46" t="s">
         <v>73</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>1</v>
-      </c>
-      <c r="R46">
-        <v>0.45</v>
-      </c>
-      <c r="S46">
-        <v>236</v>
-      </c>
-      <c r="T46">
-        <v>0.63</v>
-      </c>
-      <c r="U46" t="s">
-        <v>24</v>
-      </c>
-      <c r="V46" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:22">
       <c r="A47">
-        <v>1708153200</v>
+        <v>1708768800</v>
       </c>
       <c r="B47" t="s">
         <v>22</v>
@@ -3745,63 +3754,63 @@
         <v>0</v>
       </c>
       <c r="E47" s="2">
-        <v>45339.29166666666</v>
+        <v>45346.41666666666</v>
       </c>
       <c r="F47" s="2">
-        <v>45339</v>
+        <v>45346</v>
       </c>
       <c r="G47">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H47">
-        <v>4.94</v>
+        <v>13.04</v>
       </c>
       <c r="I47">
-        <v>4.94</v>
+        <v>11.81</v>
       </c>
       <c r="J47">
-        <v>4.94</v>
+        <v>13.04</v>
       </c>
       <c r="K47">
-        <v>4.94</v>
+        <v>13.04</v>
       </c>
       <c r="L47">
-        <v>1026</v>
+        <v>1014</v>
       </c>
       <c r="M47">
-        <v>1026</v>
+        <v>1014</v>
       </c>
       <c r="N47">
-        <v>999</v>
+        <v>987</v>
       </c>
       <c r="O47">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="P47">
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R47">
-        <v>0.28</v>
+        <v>0.53</v>
       </c>
       <c r="S47">
-        <v>206</v>
+        <v>105</v>
       </c>
       <c r="T47">
-        <v>0.52</v>
+        <v>1.14</v>
       </c>
       <c r="U47" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="V47" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:22">
       <c r="A48">
-        <v>1708156800</v>
+        <v>1708772400</v>
       </c>
       <c r="B48" t="s">
         <v>22</v>
@@ -3813,63 +3822,63 @@
         <v>0</v>
       </c>
       <c r="E48" s="2">
-        <v>45339.33333333334</v>
+        <v>45346.45833333334</v>
       </c>
       <c r="F48" s="2">
-        <v>45339</v>
+        <v>45346</v>
       </c>
       <c r="G48">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H48">
-        <v>6.56</v>
+        <v>13.71</v>
       </c>
       <c r="I48">
-        <v>6.56</v>
+        <v>12.52</v>
       </c>
       <c r="J48">
-        <v>6.56</v>
+        <v>13.71</v>
       </c>
       <c r="K48">
-        <v>6.56</v>
+        <v>13.71</v>
       </c>
       <c r="L48">
-        <v>1026</v>
+        <v>1013</v>
       </c>
       <c r="M48">
-        <v>1026</v>
+        <v>1013</v>
       </c>
       <c r="N48">
-        <v>999</v>
+        <v>987</v>
       </c>
       <c r="O48">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P48">
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R48">
-        <v>0.53</v>
+        <v>0.29</v>
       </c>
       <c r="S48">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="T48">
-        <v>0.58</v>
+        <v>1.38</v>
       </c>
       <c r="U48" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="V48" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:22">
       <c r="A49">
-        <v>1708160400</v>
+        <v>1708776000</v>
       </c>
       <c r="B49" t="s">
         <v>22</v>
@@ -3881,58 +3890,58 @@
         <v>0</v>
       </c>
       <c r="E49" s="2">
-        <v>45339.375</v>
+        <v>45346.5</v>
       </c>
       <c r="F49" s="2">
-        <v>45339</v>
+        <v>45346</v>
       </c>
       <c r="G49">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H49">
-        <v>8.1</v>
+        <v>14.56</v>
       </c>
       <c r="I49">
-        <v>8.1</v>
+        <v>13.4</v>
       </c>
       <c r="J49">
-        <v>8.1</v>
+        <v>14.56</v>
       </c>
       <c r="K49">
-        <v>8.1</v>
+        <v>14.56</v>
       </c>
       <c r="L49">
-        <v>1026</v>
+        <v>1013</v>
       </c>
       <c r="M49">
-        <v>1026</v>
+        <v>1013</v>
       </c>
       <c r="N49">
-        <v>999</v>
+        <v>986</v>
       </c>
       <c r="O49">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P49">
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R49">
-        <v>0.57</v>
+        <v>0.42</v>
       </c>
       <c r="S49">
-        <v>222</v>
+        <v>91</v>
       </c>
       <c r="T49">
-        <v>0.95</v>
+        <v>1.51</v>
       </c>
       <c r="U49" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="V49" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Solina/Production/Input/weather.xlsx
+++ b/Solina/Production/Input/weather.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="131">
   <si>
     <t>dt</t>
   </si>
@@ -79,6 +79,9 @@
     <t>sys.pod</t>
   </si>
   <si>
+    <t>rain.1h</t>
+  </si>
+  <si>
     <t>Lookup</t>
   </si>
   <si>
@@ -88,99 +91,36 @@
     <t>[{'id': 804, 'main': 'Clouds', 'description': 'overcast clouds', 'icon': '04n'}]</t>
   </si>
   <si>
+    <t>[{'id': 803, 'main': 'Clouds', 'description': 'broken clouds', 'icon': '04n'}]</t>
+  </si>
+  <si>
+    <t>[{'id': 500, 'main': 'Rain', 'description': 'light rain', 'icon': '10n'}]</t>
+  </si>
+  <si>
     <t>[{'id': 803, 'main': 'Clouds', 'description': 'broken clouds', 'icon': '04d'}]</t>
   </si>
   <si>
-    <t>[{'id': 803, 'main': 'Clouds', 'description': 'broken clouds', 'icon': '04n'}]</t>
+    <t>[{'id': 802, 'main': 'Clouds', 'description': 'scattered clouds', 'icon': '03d'}]</t>
   </si>
   <si>
     <t>[{'id': 802, 'main': 'Clouds', 'description': 'scattered clouds', 'icon': '03n'}]</t>
   </si>
   <si>
+    <t>[{'id': 801, 'main': 'Clouds', 'description': 'few clouds', 'icon': '02n'}]</t>
+  </si>
+  <si>
+    <t>[{'id': 800, 'main': 'Clear', 'description': 'clear sky', 'icon': '01d'}]</t>
+  </si>
+  <si>
+    <t>[{'id': 801, 'main': 'Clouds', 'description': 'few clouds', 'icon': '02d'}]</t>
+  </si>
+  <si>
     <t>d</t>
   </si>
   <si>
     <t>n</t>
   </si>
   <si>
-    <t>22.02.202413</t>
-  </si>
-  <si>
-    <t>22.02.202414</t>
-  </si>
-  <si>
-    <t>22.02.202415</t>
-  </si>
-  <si>
-    <t>22.02.202416</t>
-  </si>
-  <si>
-    <t>22.02.202417</t>
-  </si>
-  <si>
-    <t>22.02.202418</t>
-  </si>
-  <si>
-    <t>22.02.202419</t>
-  </si>
-  <si>
-    <t>22.02.202420</t>
-  </si>
-  <si>
-    <t>22.02.202421</t>
-  </si>
-  <si>
-    <t>22.02.202422</t>
-  </si>
-  <si>
-    <t>22.02.202423</t>
-  </si>
-  <si>
-    <t>23.02.20240</t>
-  </si>
-  <si>
-    <t>23.02.20241</t>
-  </si>
-  <si>
-    <t>23.02.20242</t>
-  </si>
-  <si>
-    <t>23.02.20243</t>
-  </si>
-  <si>
-    <t>23.02.20244</t>
-  </si>
-  <si>
-    <t>23.02.20245</t>
-  </si>
-  <si>
-    <t>23.02.20246</t>
-  </si>
-  <si>
-    <t>23.02.20247</t>
-  </si>
-  <si>
-    <t>23.02.20248</t>
-  </si>
-  <si>
-    <t>23.02.20249</t>
-  </si>
-  <si>
-    <t>23.02.202410</t>
-  </si>
-  <si>
-    <t>23.02.202411</t>
-  </si>
-  <si>
-    <t>23.02.202412</t>
-  </si>
-  <si>
-    <t>23.02.202413</t>
-  </si>
-  <si>
-    <t>23.02.202414</t>
-  </si>
-  <si>
     <t>23.02.202415</t>
   </si>
   <si>
@@ -245,6 +185,228 @@
   </si>
   <si>
     <t>24.02.202412</t>
+  </si>
+  <si>
+    <t>24.02.202413</t>
+  </si>
+  <si>
+    <t>24.02.202414</t>
+  </si>
+  <si>
+    <t>24.02.202415</t>
+  </si>
+  <si>
+    <t>24.02.202416</t>
+  </si>
+  <si>
+    <t>24.02.202417</t>
+  </si>
+  <si>
+    <t>24.02.202418</t>
+  </si>
+  <si>
+    <t>24.02.202419</t>
+  </si>
+  <si>
+    <t>24.02.202420</t>
+  </si>
+  <si>
+    <t>24.02.202421</t>
+  </si>
+  <si>
+    <t>24.02.202422</t>
+  </si>
+  <si>
+    <t>24.02.202423</t>
+  </si>
+  <si>
+    <t>25.02.20240</t>
+  </si>
+  <si>
+    <t>25.02.20241</t>
+  </si>
+  <si>
+    <t>25.02.20242</t>
+  </si>
+  <si>
+    <t>25.02.20243</t>
+  </si>
+  <si>
+    <t>25.02.20244</t>
+  </si>
+  <si>
+    <t>25.02.20245</t>
+  </si>
+  <si>
+    <t>25.02.20246</t>
+  </si>
+  <si>
+    <t>25.02.20247</t>
+  </si>
+  <si>
+    <t>25.02.20248</t>
+  </si>
+  <si>
+    <t>25.02.20249</t>
+  </si>
+  <si>
+    <t>25.02.202410</t>
+  </si>
+  <si>
+    <t>25.02.202411</t>
+  </si>
+  <si>
+    <t>25.02.202412</t>
+  </si>
+  <si>
+    <t>25.02.202413</t>
+  </si>
+  <si>
+    <t>25.02.202414</t>
+  </si>
+  <si>
+    <t>25.02.202415</t>
+  </si>
+  <si>
+    <t>25.02.202416</t>
+  </si>
+  <si>
+    <t>25.02.202417</t>
+  </si>
+  <si>
+    <t>25.02.202418</t>
+  </si>
+  <si>
+    <t>25.02.202419</t>
+  </si>
+  <si>
+    <t>25.02.202420</t>
+  </si>
+  <si>
+    <t>25.02.202421</t>
+  </si>
+  <si>
+    <t>25.02.202422</t>
+  </si>
+  <si>
+    <t>25.02.202423</t>
+  </si>
+  <si>
+    <t>26.02.20240</t>
+  </si>
+  <si>
+    <t>26.02.20241</t>
+  </si>
+  <si>
+    <t>26.02.20242</t>
+  </si>
+  <si>
+    <t>26.02.20243</t>
+  </si>
+  <si>
+    <t>26.02.20244</t>
+  </si>
+  <si>
+    <t>26.02.20245</t>
+  </si>
+  <si>
+    <t>26.02.20246</t>
+  </si>
+  <si>
+    <t>26.02.20247</t>
+  </si>
+  <si>
+    <t>26.02.20248</t>
+  </si>
+  <si>
+    <t>26.02.20249</t>
+  </si>
+  <si>
+    <t>26.02.202410</t>
+  </si>
+  <si>
+    <t>26.02.202411</t>
+  </si>
+  <si>
+    <t>26.02.202412</t>
+  </si>
+  <si>
+    <t>26.02.202413</t>
+  </si>
+  <si>
+    <t>26.02.202414</t>
+  </si>
+  <si>
+    <t>26.02.202415</t>
+  </si>
+  <si>
+    <t>26.02.202416</t>
+  </si>
+  <si>
+    <t>26.02.202417</t>
+  </si>
+  <si>
+    <t>26.02.202418</t>
+  </si>
+  <si>
+    <t>26.02.202419</t>
+  </si>
+  <si>
+    <t>26.02.202420</t>
+  </si>
+  <si>
+    <t>26.02.202421</t>
+  </si>
+  <si>
+    <t>26.02.202422</t>
+  </si>
+  <si>
+    <t>26.02.202423</t>
+  </si>
+  <si>
+    <t>27.02.20240</t>
+  </si>
+  <si>
+    <t>27.02.20241</t>
+  </si>
+  <si>
+    <t>27.02.20242</t>
+  </si>
+  <si>
+    <t>27.02.20243</t>
+  </si>
+  <si>
+    <t>27.02.20244</t>
+  </si>
+  <si>
+    <t>27.02.20245</t>
+  </si>
+  <si>
+    <t>27.02.20246</t>
+  </si>
+  <si>
+    <t>27.02.20247</t>
+  </si>
+  <si>
+    <t>27.02.20248</t>
+  </si>
+  <si>
+    <t>27.02.20249</t>
+  </si>
+  <si>
+    <t>27.02.202410</t>
+  </si>
+  <si>
+    <t>27.02.202411</t>
+  </si>
+  <si>
+    <t>27.02.202412</t>
+  </si>
+  <si>
+    <t>27.02.202413</t>
+  </si>
+  <si>
+    <t>27.02.202414</t>
   </si>
 </sst>
 </file>
@@ -606,13 +768,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V49"/>
+  <dimension ref="A1:W97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,13 +841,16 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2">
-        <v>1708606800</v>
+        <v>1708700400</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>10000</v>
@@ -694,66 +859,66 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>45344.54166666666</v>
+        <v>45345.625</v>
       </c>
       <c r="F2" s="2">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2">
-        <v>10.68</v>
+        <v>10.78</v>
       </c>
       <c r="I2">
-        <v>8.98</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="J2">
-        <v>10.68</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="K2">
-        <v>10.68</v>
+        <v>10.78</v>
       </c>
       <c r="L2">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="M2">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="N2">
-        <v>988</v>
+        <v>952</v>
       </c>
       <c r="O2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q2">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="R2">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="S2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="T2">
-        <v>2.64</v>
+        <v>1.87</v>
       </c>
       <c r="U2" t="s">
-        <v>27</v>
-      </c>
-      <c r="V2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <v>33</v>
+      </c>
+      <c r="W2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3">
-        <v>1708610400</v>
+        <v>1708704000</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>10000</v>
@@ -762,66 +927,66 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>45344.58333333334</v>
+        <v>45345.66666666666</v>
       </c>
       <c r="F3" s="2">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3">
-        <v>10.67</v>
+        <v>9.68</v>
       </c>
       <c r="I3">
-        <v>8.99</v>
+        <v>9.68</v>
       </c>
       <c r="J3">
-        <v>10.62</v>
+        <v>7.73</v>
       </c>
       <c r="K3">
-        <v>10.67</v>
+        <v>9.68</v>
       </c>
       <c r="L3">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="M3">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="N3">
-        <v>987</v>
+        <v>952</v>
       </c>
       <c r="O3">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="P3">
-        <v>0.05</v>
+        <v>1.95</v>
       </c>
       <c r="Q3">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="R3">
-        <v>1.13</v>
+        <v>0.96</v>
       </c>
       <c r="S3">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="T3">
-        <v>2.12</v>
+        <v>0.95</v>
       </c>
       <c r="U3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>34</v>
+      </c>
+      <c r="W3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4">
-        <v>1708614000</v>
+        <v>1708707600</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>10000</v>
@@ -830,66 +995,66 @@
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>45344.625</v>
+        <v>45345.70833333334</v>
       </c>
       <c r="F4" s="2">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H4">
-        <v>10.38</v>
+        <v>8.65</v>
       </c>
       <c r="I4">
-        <v>8.75</v>
+        <v>7.8</v>
       </c>
       <c r="J4">
-        <v>9.94</v>
+        <v>7.09</v>
       </c>
       <c r="K4">
-        <v>10.38</v>
+        <v>8.65</v>
       </c>
       <c r="L4">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="M4">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="N4">
-        <v>987</v>
+        <v>953</v>
       </c>
       <c r="O4">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="P4">
-        <v>0.44</v>
+        <v>1.56</v>
       </c>
       <c r="Q4">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="R4">
-        <v>0.9399999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="S4">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="T4">
-        <v>1.27</v>
+        <v>1.71</v>
       </c>
       <c r="U4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>34</v>
+      </c>
+      <c r="W4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5">
-        <v>1708617600</v>
+        <v>1708711200</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>10000</v>
@@ -898,66 +1063,66 @@
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>45344.66666666666</v>
+        <v>45345.75</v>
       </c>
       <c r="F5" s="2">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H5">
-        <v>9.41</v>
+        <v>7.55</v>
       </c>
       <c r="I5">
-        <v>9.41</v>
+        <v>6.38</v>
       </c>
       <c r="J5">
-        <v>8.57</v>
+        <v>6.69</v>
       </c>
       <c r="K5">
-        <v>9.41</v>
+        <v>7.55</v>
       </c>
       <c r="L5">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="M5">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="N5">
-        <v>987</v>
+        <v>953</v>
       </c>
       <c r="O5">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P5">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="Q5">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="R5">
-        <v>0.96</v>
+        <v>1.96</v>
       </c>
       <c r="S5">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="T5">
-        <v>1.02</v>
+        <v>1.81</v>
       </c>
       <c r="U5" t="s">
-        <v>27</v>
-      </c>
-      <c r="V5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+        <v>34</v>
+      </c>
+      <c r="W5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6">
-        <v>1708621200</v>
+        <v>1708714800</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>10000</v>
@@ -966,66 +1131,66 @@
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>45344.70833333334</v>
+        <v>45345.79166666666</v>
       </c>
       <c r="F6" s="2">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H6">
-        <v>8.460000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="I6">
-        <v>8.039999999999999</v>
+        <v>5.22</v>
       </c>
       <c r="J6">
-        <v>7.9</v>
+        <v>6.5</v>
       </c>
       <c r="K6">
-        <v>8.460000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="L6">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="M6">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="N6">
-        <v>987</v>
+        <v>953</v>
       </c>
       <c r="O6">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="P6">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>100</v>
       </c>
       <c r="R6">
-        <v>1.37</v>
+        <v>1.89</v>
       </c>
       <c r="S6">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="T6">
-        <v>1.37</v>
+        <v>1.74</v>
       </c>
       <c r="U6" t="s">
-        <v>28</v>
-      </c>
-      <c r="V6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+        <v>34</v>
+      </c>
+      <c r="W6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7">
-        <v>1708624800</v>
+        <v>1708718400</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>10000</v>
@@ -1034,25 +1199,25 @@
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>45344.75</v>
+        <v>45345.83333333334</v>
       </c>
       <c r="F7" s="2">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H7">
-        <v>7.84</v>
+        <v>6.1</v>
       </c>
       <c r="I7">
-        <v>7.37</v>
+        <v>4.7</v>
       </c>
       <c r="J7">
-        <v>7.84</v>
+        <v>6.1</v>
       </c>
       <c r="K7">
-        <v>7.84</v>
+        <v>6.1</v>
       </c>
       <c r="L7">
         <v>1013</v>
@@ -1061,39 +1226,39 @@
         <v>1013</v>
       </c>
       <c r="N7">
-        <v>986</v>
+        <v>953</v>
       </c>
       <c r="O7">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="R7">
-        <v>1.35</v>
+        <v>1.95</v>
       </c>
       <c r="S7">
-        <v>222</v>
+        <v>103</v>
       </c>
       <c r="T7">
-        <v>1.39</v>
+        <v>1.82</v>
       </c>
       <c r="U7" t="s">
-        <v>28</v>
-      </c>
-      <c r="V7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8">
-        <v>1708628400</v>
+        <v>1708722000</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>10000</v>
@@ -1102,25 +1267,25 @@
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>45344.79166666666</v>
+        <v>45345.875</v>
       </c>
       <c r="F8" s="2">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="G8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H8">
-        <v>7.76</v>
+        <v>5.89</v>
       </c>
       <c r="I8">
-        <v>7.76</v>
+        <v>4.55</v>
       </c>
       <c r="J8">
-        <v>7.76</v>
+        <v>5.89</v>
       </c>
       <c r="K8">
-        <v>7.76</v>
+        <v>5.89</v>
       </c>
       <c r="L8">
         <v>1013</v>
@@ -1129,175 +1294,175 @@
         <v>1013</v>
       </c>
       <c r="N8">
-        <v>986</v>
+        <v>954</v>
       </c>
       <c r="O8">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="R8">
-        <v>1.29</v>
+        <v>1.86</v>
       </c>
       <c r="S8">
-        <v>231</v>
+        <v>104</v>
       </c>
       <c r="T8">
-        <v>1.37</v>
+        <v>1.73</v>
       </c>
       <c r="U8" t="s">
-        <v>28</v>
-      </c>
-      <c r="V8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+        <v>34</v>
+      </c>
+      <c r="W8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9">
-        <v>1708632000</v>
+        <v>1708725600</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>10000</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45345.91666666666</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45345</v>
+      </c>
+      <c r="G9">
+        <v>22</v>
+      </c>
+      <c r="H9">
+        <v>5.76</v>
+      </c>
+      <c r="I9">
+        <v>4.31</v>
+      </c>
+      <c r="J9">
+        <v>5.76</v>
+      </c>
+      <c r="K9">
+        <v>5.76</v>
+      </c>
+      <c r="L9">
+        <v>1013</v>
+      </c>
+      <c r="M9">
+        <v>1013</v>
+      </c>
+      <c r="N9">
+        <v>954</v>
+      </c>
+      <c r="O9">
+        <v>65</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>66</v>
+      </c>
+      <c r="R9">
+        <v>1.94</v>
+      </c>
+      <c r="S9">
+        <v>104</v>
+      </c>
+      <c r="T9">
+        <v>1.82</v>
+      </c>
+      <c r="U9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10">
+        <v>1708729200</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>10000</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45345.95833333334</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45345</v>
+      </c>
+      <c r="G10">
         <v>23</v>
       </c>
-      <c r="C9">
-        <v>10000</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>45344.83333333334</v>
-      </c>
-      <c r="F9" s="2">
-        <v>45344</v>
-      </c>
-      <c r="G9">
-        <v>20</v>
-      </c>
-      <c r="H9">
-        <v>7.59</v>
-      </c>
-      <c r="I9">
-        <v>6.85</v>
-      </c>
-      <c r="J9">
-        <v>7.59</v>
-      </c>
-      <c r="K9">
-        <v>7.59</v>
-      </c>
-      <c r="L9">
-        <v>1012</v>
-      </c>
-      <c r="M9">
-        <v>1012</v>
-      </c>
-      <c r="N9">
-        <v>985</v>
-      </c>
-      <c r="O9">
-        <v>62</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>100</v>
-      </c>
-      <c r="R9">
-        <v>1.54</v>
-      </c>
-      <c r="S9">
-        <v>224</v>
-      </c>
-      <c r="T9">
-        <v>1.58</v>
-      </c>
-      <c r="U9" t="s">
-        <v>28</v>
-      </c>
-      <c r="V9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10">
-        <v>1708635600</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10">
-        <v>10000</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>45344.875</v>
-      </c>
-      <c r="F10" s="2">
-        <v>45344</v>
-      </c>
-      <c r="G10">
-        <v>21</v>
-      </c>
       <c r="H10">
-        <v>7.31</v>
+        <v>5.6</v>
       </c>
       <c r="I10">
-        <v>6.59</v>
+        <v>4.02</v>
       </c>
       <c r="J10">
-        <v>7.31</v>
+        <v>5.6</v>
       </c>
       <c r="K10">
-        <v>7.31</v>
+        <v>5.6</v>
       </c>
       <c r="L10">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="M10">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="N10">
-        <v>985</v>
+        <v>954</v>
       </c>
       <c r="O10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="R10">
-        <v>1.49</v>
+        <v>2.05</v>
       </c>
       <c r="S10">
-        <v>230</v>
+        <v>94</v>
       </c>
       <c r="T10">
-        <v>1.51</v>
+        <v>1.91</v>
       </c>
       <c r="U10" t="s">
-        <v>28</v>
-      </c>
-      <c r="V10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+        <v>34</v>
+      </c>
+      <c r="W10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11">
-        <v>1708639200</v>
+        <v>1708732800</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>10000</v>
@@ -1306,66 +1471,66 @@
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>45344.91666666666</v>
+        <v>45346</v>
       </c>
       <c r="F11" s="2">
-        <v>45344</v>
+        <v>45346</v>
       </c>
       <c r="G11">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>7.1</v>
+        <v>5.41</v>
       </c>
       <c r="I11">
-        <v>7.1</v>
+        <v>3.62</v>
       </c>
       <c r="J11">
-        <v>7.1</v>
+        <v>5.41</v>
       </c>
       <c r="K11">
-        <v>7.1</v>
+        <v>5.41</v>
       </c>
       <c r="L11">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="M11">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="N11">
-        <v>985</v>
+        <v>954</v>
       </c>
       <c r="O11">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="R11">
-        <v>0.8</v>
+        <v>2.23</v>
       </c>
       <c r="S11">
-        <v>247</v>
+        <v>95</v>
       </c>
       <c r="T11">
-        <v>1.03</v>
+        <v>2.01</v>
       </c>
       <c r="U11" t="s">
-        <v>28</v>
-      </c>
-      <c r="V11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+        <v>34</v>
+      </c>
+      <c r="W11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12">
-        <v>1708642800</v>
+        <v>1708736400</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>10000</v>
@@ -1374,66 +1539,66 @@
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>45344.95833333334</v>
+        <v>45346.04166666666</v>
       </c>
       <c r="F12" s="2">
-        <v>45344</v>
+        <v>45346</v>
       </c>
       <c r="G12">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>7.13</v>
+        <v>5.27</v>
       </c>
       <c r="I12">
-        <v>7.13</v>
+        <v>3.7</v>
       </c>
       <c r="J12">
-        <v>7.13</v>
+        <v>5.27</v>
       </c>
       <c r="K12">
-        <v>7.13</v>
+        <v>5.27</v>
       </c>
       <c r="L12">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="M12">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="N12">
-        <v>985</v>
+        <v>954</v>
       </c>
       <c r="O12">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R12">
-        <v>0.92</v>
+        <v>1.98</v>
       </c>
       <c r="S12">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="T12">
-        <v>1.05</v>
+        <v>1.88</v>
       </c>
       <c r="U12" t="s">
-        <v>28</v>
-      </c>
-      <c r="V12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+        <v>34</v>
+      </c>
+      <c r="W12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13">
-        <v>1708646400</v>
+        <v>1708740000</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>10000</v>
@@ -1442,66 +1607,66 @@
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>45345</v>
+        <v>45346.08333333334</v>
       </c>
       <c r="F13" s="2">
-        <v>45345</v>
+        <v>45346</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>6.98</v>
+        <v>5.1</v>
       </c>
       <c r="I13">
-        <v>6.98</v>
+        <v>3.47</v>
       </c>
       <c r="J13">
-        <v>6.98</v>
+        <v>5.1</v>
       </c>
       <c r="K13">
-        <v>6.98</v>
+        <v>5.1</v>
       </c>
       <c r="L13">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="M13">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="N13">
-        <v>985</v>
+        <v>954</v>
       </c>
       <c r="O13">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="R13">
-        <v>1.06</v>
+        <v>2.01</v>
       </c>
       <c r="S13">
-        <v>227</v>
+        <v>87</v>
       </c>
       <c r="T13">
-        <v>1.12</v>
+        <v>1.84</v>
       </c>
       <c r="U13" t="s">
-        <v>28</v>
-      </c>
-      <c r="V13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+        <v>34</v>
+      </c>
+      <c r="W13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14">
-        <v>1708650000</v>
+        <v>1708743600</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>10000</v>
@@ -1510,66 +1675,66 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>45345.04166666666</v>
+        <v>45346.125</v>
       </c>
       <c r="F14" s="2">
-        <v>45345</v>
+        <v>45346</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>6.33</v>
+        <v>4.96</v>
       </c>
       <c r="I14">
-        <v>6.33</v>
+        <v>3.28</v>
       </c>
       <c r="J14">
-        <v>6.33</v>
+        <v>4.96</v>
       </c>
       <c r="K14">
-        <v>6.33</v>
+        <v>4.96</v>
       </c>
       <c r="L14">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="M14">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="N14">
-        <v>984</v>
+        <v>954</v>
       </c>
       <c r="O14">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="R14">
-        <v>1.11</v>
+        <v>2.04</v>
       </c>
       <c r="S14">
-        <v>244</v>
+        <v>93</v>
       </c>
       <c r="T14">
-        <v>1.18</v>
+        <v>1.88</v>
       </c>
       <c r="U14" t="s">
-        <v>28</v>
-      </c>
-      <c r="V14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+        <v>34</v>
+      </c>
+      <c r="W14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15">
-        <v>1708653600</v>
+        <v>1708747200</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>10000</v>
@@ -1578,66 +1743,66 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>45345.08333333334</v>
+        <v>45346.16666666666</v>
       </c>
       <c r="F15" s="2">
-        <v>45345</v>
+        <v>45346</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>5.92</v>
+        <v>4.97</v>
       </c>
       <c r="I15">
-        <v>5.92</v>
+        <v>3.4</v>
       </c>
       <c r="J15">
-        <v>5.92</v>
+        <v>4.97</v>
       </c>
       <c r="K15">
-        <v>5.92</v>
+        <v>4.97</v>
       </c>
       <c r="L15">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="M15">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="N15">
-        <v>984</v>
+        <v>954</v>
       </c>
       <c r="O15">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="R15">
-        <v>0.63</v>
+        <v>1.94</v>
       </c>
       <c r="S15">
-        <v>211</v>
+        <v>89</v>
       </c>
       <c r="T15">
-        <v>0.73</v>
+        <v>1.83</v>
       </c>
       <c r="U15" t="s">
-        <v>28</v>
-      </c>
-      <c r="V15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+        <v>34</v>
+      </c>
+      <c r="W15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16">
-        <v>1708657200</v>
+        <v>1708750800</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>10000</v>
@@ -1646,63 +1811,63 @@
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>45345.125</v>
+        <v>45346.20833333334</v>
       </c>
       <c r="F16" s="2">
-        <v>45345</v>
+        <v>45346</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H16">
-        <v>5.78</v>
+        <v>5.37</v>
       </c>
       <c r="I16">
-        <v>5.78</v>
+        <v>3.81</v>
       </c>
       <c r="J16">
-        <v>5.78</v>
+        <v>5.37</v>
       </c>
       <c r="K16">
-        <v>5.78</v>
+        <v>5.37</v>
       </c>
       <c r="L16">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="M16">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="N16">
-        <v>983</v>
+        <v>954</v>
       </c>
       <c r="O16">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="R16">
-        <v>0.51</v>
+        <v>1.99</v>
       </c>
       <c r="S16">
-        <v>215</v>
+        <v>93</v>
       </c>
       <c r="T16">
-        <v>0.89</v>
+        <v>1.83</v>
       </c>
       <c r="U16" t="s">
-        <v>28</v>
-      </c>
-      <c r="V16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
+        <v>34</v>
+      </c>
+      <c r="W16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17">
-        <v>1708660800</v>
+        <v>1708754400</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -1714,63 +1879,63 @@
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>45345.16666666666</v>
+        <v>45346.25</v>
       </c>
       <c r="F17" s="2">
-        <v>45345</v>
+        <v>45346</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H17">
-        <v>5.76</v>
+        <v>6.03</v>
       </c>
       <c r="I17">
-        <v>5.76</v>
+        <v>4.56</v>
       </c>
       <c r="J17">
-        <v>5.76</v>
+        <v>6.03</v>
       </c>
       <c r="K17">
-        <v>5.76</v>
+        <v>6.03</v>
       </c>
       <c r="L17">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="M17">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="N17">
-        <v>983</v>
+        <v>955</v>
       </c>
       <c r="O17">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="R17">
-        <v>0.96</v>
+        <v>2.01</v>
       </c>
       <c r="S17">
-        <v>275</v>
+        <v>91</v>
       </c>
       <c r="T17">
-        <v>0.95</v>
+        <v>1.92</v>
       </c>
       <c r="U17" t="s">
-        <v>28</v>
-      </c>
-      <c r="V17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+        <v>33</v>
+      </c>
+      <c r="W17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18">
-        <v>1708664400</v>
+        <v>1708758000</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
@@ -1782,66 +1947,66 @@
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>45345.20833333334</v>
+        <v>45346.29166666666</v>
       </c>
       <c r="F18" s="2">
-        <v>45345</v>
+        <v>45346</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H18">
-        <v>5.73</v>
+        <v>8.16</v>
       </c>
       <c r="I18">
-        <v>5.73</v>
+        <v>8.16</v>
       </c>
       <c r="J18">
-        <v>5.73</v>
+        <v>8.16</v>
       </c>
       <c r="K18">
-        <v>5.73</v>
+        <v>8.16</v>
       </c>
       <c r="L18">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="M18">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="N18">
-        <v>983</v>
+        <v>955</v>
       </c>
       <c r="O18">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R18">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S18">
-        <v>245</v>
+        <v>97</v>
       </c>
       <c r="T18">
-        <v>1.22</v>
+        <v>1.94</v>
       </c>
       <c r="U18" t="s">
-        <v>28</v>
-      </c>
-      <c r="V18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+        <v>33</v>
+      </c>
+      <c r="W18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19">
-        <v>1708668000</v>
+        <v>1708761600</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>10000</v>
@@ -1850,37 +2015,37 @@
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>45345.25</v>
+        <v>45346.33333333334</v>
       </c>
       <c r="F19" s="2">
-        <v>45345</v>
+        <v>45346</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H19">
-        <v>5.99</v>
+        <v>10.2</v>
       </c>
       <c r="I19">
-        <v>5.29</v>
+        <v>8.76</v>
       </c>
       <c r="J19">
-        <v>5.99</v>
+        <v>10.2</v>
       </c>
       <c r="K19">
-        <v>5.99</v>
+        <v>10.2</v>
       </c>
       <c r="L19">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="M19">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="N19">
-        <v>984</v>
+        <v>955</v>
       </c>
       <c r="O19">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1889,27 +2054,27 @@
         <v>99</v>
       </c>
       <c r="R19">
-        <v>1.34</v>
+        <v>0.52</v>
       </c>
       <c r="S19">
-        <v>235</v>
+        <v>139</v>
       </c>
       <c r="T19">
-        <v>1.32</v>
+        <v>1.51</v>
       </c>
       <c r="U19" t="s">
-        <v>27</v>
-      </c>
-      <c r="V19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
+        <v>33</v>
+      </c>
+      <c r="W19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20">
-        <v>1708671600</v>
+        <v>1708765200</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20">
         <v>10000</v>
@@ -1918,66 +2083,66 @@
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>45345.29166666666</v>
+        <v>45346.375</v>
       </c>
       <c r="F20" s="2">
-        <v>45345</v>
+        <v>45346</v>
       </c>
       <c r="G20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H20">
-        <v>7.39</v>
+        <v>11.4</v>
       </c>
       <c r="I20">
-        <v>7.39</v>
+        <v>9.98</v>
       </c>
       <c r="J20">
-        <v>7.39</v>
+        <v>11.4</v>
       </c>
       <c r="K20">
-        <v>7.39</v>
+        <v>11.4</v>
       </c>
       <c r="L20">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="M20">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="N20">
-        <v>984</v>
+        <v>956</v>
       </c>
       <c r="O20">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R20">
-        <v>1.05</v>
+        <v>1.36</v>
       </c>
       <c r="S20">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="T20">
-        <v>1.46</v>
+        <v>3.1</v>
       </c>
       <c r="U20" t="s">
-        <v>27</v>
-      </c>
-      <c r="V20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
+        <v>33</v>
+      </c>
+      <c r="W20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21">
-        <v>1708675200</v>
+        <v>1708768800</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>10000</v>
@@ -1986,66 +2151,66 @@
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>45345.33333333334</v>
+        <v>45346.41666666666</v>
       </c>
       <c r="F21" s="2">
-        <v>45345</v>
+        <v>45346</v>
       </c>
       <c r="G21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H21">
-        <v>8.359999999999999</v>
+        <v>11.96</v>
       </c>
       <c r="I21">
-        <v>8.359999999999999</v>
+        <v>10.54</v>
       </c>
       <c r="J21">
-        <v>8.359999999999999</v>
+        <v>11.96</v>
       </c>
       <c r="K21">
-        <v>8.359999999999999</v>
+        <v>11.96</v>
       </c>
       <c r="L21">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="M21">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="N21">
-        <v>984</v>
+        <v>956</v>
       </c>
       <c r="O21">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R21">
-        <v>0.76</v>
+        <v>1.66</v>
       </c>
       <c r="S21">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="T21">
-        <v>1.38</v>
+        <v>3.32</v>
       </c>
       <c r="U21" t="s">
-        <v>27</v>
-      </c>
-      <c r="V21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
+        <v>33</v>
+      </c>
+      <c r="W21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22">
-        <v>1708678800</v>
+        <v>1708772400</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22">
         <v>10000</v>
@@ -2054,66 +2219,66 @@
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>45345.375</v>
+        <v>45346.45833333334</v>
       </c>
       <c r="F22" s="2">
-        <v>45345</v>
+        <v>45346</v>
       </c>
       <c r="G22">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H22">
-        <v>9.75</v>
+        <v>12.35</v>
       </c>
       <c r="I22">
-        <v>9.75</v>
+        <v>10.97</v>
       </c>
       <c r="J22">
-        <v>9.75</v>
+        <v>12.35</v>
       </c>
       <c r="K22">
-        <v>9.75</v>
+        <v>12.35</v>
       </c>
       <c r="L22">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="M22">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="N22">
-        <v>984</v>
+        <v>955</v>
       </c>
       <c r="O22">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R22">
-        <v>0.77</v>
+        <v>1.35</v>
       </c>
       <c r="S22">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="T22">
-        <v>1.41</v>
+        <v>2.85</v>
       </c>
       <c r="U22" t="s">
-        <v>27</v>
-      </c>
-      <c r="V22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
+        <v>33</v>
+      </c>
+      <c r="W22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23">
-        <v>1708682400</v>
+        <v>1708776000</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>10000</v>
@@ -2122,34 +2287,34 @@
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>45345.41666666666</v>
+        <v>45346.5</v>
       </c>
       <c r="F23" s="2">
-        <v>45345</v>
+        <v>45346</v>
       </c>
       <c r="G23">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H23">
-        <v>10.75</v>
+        <v>12.68</v>
       </c>
       <c r="I23">
-        <v>9.19</v>
+        <v>11.31</v>
       </c>
       <c r="J23">
-        <v>10.75</v>
+        <v>12.68</v>
       </c>
       <c r="K23">
-        <v>10.75</v>
+        <v>12.68</v>
       </c>
       <c r="L23">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="M23">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="N23">
-        <v>984</v>
+        <v>955</v>
       </c>
       <c r="O23">
         <v>50</v>
@@ -2161,27 +2326,27 @@
         <v>100</v>
       </c>
       <c r="R23">
-        <v>0.88</v>
+        <v>1.27</v>
       </c>
       <c r="S23">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="T23">
-        <v>1.99</v>
+        <v>2.86</v>
       </c>
       <c r="U23" t="s">
-        <v>27</v>
-      </c>
-      <c r="V23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
+        <v>33</v>
+      </c>
+      <c r="W23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24">
-        <v>1708686000</v>
+        <v>1708779600</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>10000</v>
@@ -2190,37 +2355,37 @@
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>45345.45833333334</v>
+        <v>45346.54166666666</v>
       </c>
       <c r="F24" s="2">
-        <v>45345</v>
+        <v>45346</v>
       </c>
       <c r="G24">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H24">
-        <v>11.63</v>
+        <v>12.81</v>
       </c>
       <c r="I24">
-        <v>10.08</v>
+        <v>11.48</v>
       </c>
       <c r="J24">
-        <v>11.63</v>
+        <v>12.81</v>
       </c>
       <c r="K24">
-        <v>11.63</v>
+        <v>12.81</v>
       </c>
       <c r="L24">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="M24">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="N24">
-        <v>984</v>
+        <v>955</v>
       </c>
       <c r="O24">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -2229,27 +2394,27 @@
         <v>100</v>
       </c>
       <c r="R24">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="S24">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="T24">
-        <v>2.35</v>
+        <v>2.76</v>
       </c>
       <c r="U24" t="s">
-        <v>27</v>
-      </c>
-      <c r="V24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
+        <v>33</v>
+      </c>
+      <c r="W24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25">
-        <v>1708689600</v>
+        <v>1708783200</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>10000</v>
@@ -2258,37 +2423,37 @@
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>45345.5</v>
+        <v>45346.58333333334</v>
       </c>
       <c r="F25" s="2">
-        <v>45345</v>
+        <v>45346</v>
       </c>
       <c r="G25">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H25">
-        <v>12.38</v>
+        <v>12.55</v>
       </c>
       <c r="I25">
-        <v>10.85</v>
+        <v>11.24</v>
       </c>
       <c r="J25">
-        <v>12.38</v>
+        <v>12.55</v>
       </c>
       <c r="K25">
-        <v>12.38</v>
+        <v>12.55</v>
       </c>
       <c r="L25">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="M25">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="N25">
-        <v>983</v>
+        <v>955</v>
       </c>
       <c r="O25">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2297,27 +2462,27 @@
         <v>100</v>
       </c>
       <c r="R25">
-        <v>1.8</v>
+        <v>0.77</v>
       </c>
       <c r="S25">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="T25">
-        <v>3.41</v>
+        <v>1.59</v>
       </c>
       <c r="U25" t="s">
-        <v>27</v>
-      </c>
-      <c r="V25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
+        <v>33</v>
+      </c>
+      <c r="W25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26">
-        <v>1708693200</v>
+        <v>1708786800</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26">
         <v>10000</v>
@@ -2326,37 +2491,37 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>45345.54166666666</v>
+        <v>45346.625</v>
       </c>
       <c r="F26" s="2">
-        <v>45345</v>
+        <v>45346</v>
       </c>
       <c r="G26">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H26">
-        <v>12.8</v>
+        <v>11.36</v>
       </c>
       <c r="I26">
-        <v>11.31</v>
+        <v>10.14</v>
       </c>
       <c r="J26">
-        <v>12.8</v>
+        <v>11.36</v>
       </c>
       <c r="K26">
-        <v>12.8</v>
+        <v>11.36</v>
       </c>
       <c r="L26">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="M26">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="N26">
-        <v>983</v>
+        <v>956</v>
       </c>
       <c r="O26">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -2365,27 +2530,27 @@
         <v>100</v>
       </c>
       <c r="R26">
-        <v>1.79</v>
+        <v>0.38</v>
       </c>
       <c r="S26">
-        <v>236</v>
+        <v>299</v>
       </c>
       <c r="T26">
-        <v>3.47</v>
+        <v>0.9</v>
       </c>
       <c r="U26" t="s">
-        <v>27</v>
-      </c>
-      <c r="V26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
+        <v>33</v>
+      </c>
+      <c r="W26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27">
-        <v>1708696800</v>
+        <v>1708790400</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C27">
         <v>10000</v>
@@ -2394,37 +2559,37 @@
         <v>0</v>
       </c>
       <c r="E27" s="2">
-        <v>45345.58333333334</v>
+        <v>45346.66666666666</v>
       </c>
       <c r="F27" s="2">
-        <v>45345</v>
+        <v>45346</v>
       </c>
       <c r="G27">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H27">
-        <v>12.75</v>
+        <v>10.26</v>
       </c>
       <c r="I27">
-        <v>11.31</v>
+        <v>9.01</v>
       </c>
       <c r="J27">
-        <v>12.75</v>
+        <v>10.26</v>
       </c>
       <c r="K27">
-        <v>12.75</v>
+        <v>10.26</v>
       </c>
       <c r="L27">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="M27">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="N27">
-        <v>984</v>
+        <v>956</v>
       </c>
       <c r="O27">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -2433,27 +2598,27 @@
         <v>100</v>
       </c>
       <c r="R27">
-        <v>1.5</v>
+        <v>0.71</v>
       </c>
       <c r="S27">
-        <v>229</v>
+        <v>67</v>
       </c>
       <c r="T27">
-        <v>3.15</v>
+        <v>0.87</v>
       </c>
       <c r="U27" t="s">
-        <v>27</v>
-      </c>
-      <c r="V27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
+        <v>34</v>
+      </c>
+      <c r="W27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28">
-        <v>1708700400</v>
+        <v>1708794000</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C28">
         <v>10000</v>
@@ -2462,63 +2627,63 @@
         <v>0</v>
       </c>
       <c r="E28" s="2">
-        <v>45345.625</v>
+        <v>45346.70833333334</v>
       </c>
       <c r="F28" s="2">
-        <v>45345</v>
+        <v>45346</v>
       </c>
       <c r="G28">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H28">
-        <v>11.99</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I28">
-        <v>10.65</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J28">
-        <v>11.99</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K28">
-        <v>11.99</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L28">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="M28">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="N28">
-        <v>983</v>
+        <v>956</v>
       </c>
       <c r="O28">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="R28">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="S28">
-        <v>226</v>
+        <v>89</v>
       </c>
       <c r="T28">
-        <v>1.79</v>
+        <v>1.23</v>
       </c>
       <c r="U28" t="s">
-        <v>27</v>
-      </c>
-      <c r="V28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
+        <v>34</v>
+      </c>
+      <c r="W28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29">
-        <v>1708704000</v>
+        <v>1708797600</v>
       </c>
       <c r="B29" t="s">
         <v>24</v>
@@ -2530,170 +2695,170 @@
         <v>0</v>
       </c>
       <c r="E29" s="2">
-        <v>45345.66666666666</v>
+        <v>45346.75</v>
       </c>
       <c r="F29" s="2">
-        <v>45345</v>
+        <v>45346</v>
       </c>
       <c r="G29">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H29">
-        <v>9.94</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="I29">
-        <v>9.94</v>
+        <v>9.08</v>
       </c>
       <c r="J29">
-        <v>9.94</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="K29">
-        <v>9.94</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="L29">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="M29">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="N29">
-        <v>984</v>
+        <v>956</v>
       </c>
       <c r="O29">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="R29">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="S29">
-        <v>249</v>
+        <v>93</v>
       </c>
       <c r="T29">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="U29" t="s">
-        <v>27</v>
-      </c>
-      <c r="V29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
+        <v>34</v>
+      </c>
+      <c r="W29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30">
-        <v>1708707600</v>
+        <v>1708801200</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30">
         <v>10000</v>
       </c>
       <c r="D30">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2">
-        <v>45345.70833333334</v>
+        <v>45346.79166666666</v>
       </c>
       <c r="F30" s="2">
-        <v>45345</v>
+        <v>45346</v>
       </c>
       <c r="G30">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H30">
-        <v>9.17</v>
+        <v>9.18</v>
       </c>
       <c r="I30">
-        <v>9.17</v>
+        <v>8.75</v>
       </c>
       <c r="J30">
-        <v>9.17</v>
+        <v>9.18</v>
       </c>
       <c r="K30">
-        <v>9.17</v>
+        <v>9.18</v>
       </c>
       <c r="L30">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="M30">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="N30">
-        <v>984</v>
+        <v>957</v>
       </c>
       <c r="O30">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="R30">
-        <v>0.96</v>
+        <v>1.47</v>
       </c>
       <c r="S30">
-        <v>242</v>
+        <v>93</v>
       </c>
       <c r="T30">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="U30" t="s">
-        <v>28</v>
-      </c>
-      <c r="V30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22">
+        <v>34</v>
+      </c>
+      <c r="W30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31">
-        <v>1708711200</v>
+        <v>1708804800</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31">
         <v>10000</v>
       </c>
       <c r="D31">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E31" s="2">
-        <v>45345.75</v>
+        <v>45346.83333333334</v>
       </c>
       <c r="F31" s="2">
-        <v>45345</v>
+        <v>45346</v>
       </c>
       <c r="G31">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H31">
-        <v>8.619999999999999</v>
+        <v>9.23</v>
       </c>
       <c r="I31">
-        <v>8.619999999999999</v>
+        <v>8.81</v>
       </c>
       <c r="J31">
-        <v>8.619999999999999</v>
+        <v>9.23</v>
       </c>
       <c r="K31">
-        <v>8.619999999999999</v>
+        <v>9.23</v>
       </c>
       <c r="L31">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="M31">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="N31">
-        <v>984</v>
+        <v>957</v>
       </c>
       <c r="O31">
         <v>69</v>
@@ -2702,477 +2867,477 @@
         <v>0</v>
       </c>
       <c r="Q31">
+        <v>100</v>
+      </c>
+      <c r="R31">
+        <v>1.46</v>
+      </c>
+      <c r="S31">
+        <v>100</v>
+      </c>
+      <c r="T31">
+        <v>1.42</v>
+      </c>
+      <c r="U31" t="s">
+        <v>34</v>
+      </c>
+      <c r="W31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32">
+        <v>1708808400</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32">
+        <v>10000</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45346.875</v>
+      </c>
+      <c r="F32" s="2">
+        <v>45346</v>
+      </c>
+      <c r="G32">
+        <v>21</v>
+      </c>
+      <c r="H32">
+        <v>9.32</v>
+      </c>
+      <c r="I32">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="J32">
+        <v>9.32</v>
+      </c>
+      <c r="K32">
+        <v>9.32</v>
+      </c>
+      <c r="L32">
+        <v>1016</v>
+      </c>
+      <c r="M32">
+        <v>1016</v>
+      </c>
+      <c r="N32">
+        <v>957</v>
+      </c>
+      <c r="O32">
+        <v>69</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>100</v>
+      </c>
+      <c r="R32">
+        <v>1.42</v>
+      </c>
+      <c r="S32">
+        <v>105</v>
+      </c>
+      <c r="T32">
+        <v>1.4</v>
+      </c>
+      <c r="U32" t="s">
+        <v>34</v>
+      </c>
+      <c r="W32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33">
+        <v>1708812000</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <v>10000</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45346.91666666666</v>
+      </c>
+      <c r="F33" s="2">
+        <v>45346</v>
+      </c>
+      <c r="G33">
+        <v>22</v>
+      </c>
+      <c r="H33">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="I33">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="J33">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="K33">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="L33">
+        <v>1016</v>
+      </c>
+      <c r="M33">
+        <v>1016</v>
+      </c>
+      <c r="N33">
+        <v>957</v>
+      </c>
+      <c r="O33">
+        <v>69</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>100</v>
+      </c>
+      <c r="R33">
+        <v>1.3</v>
+      </c>
+      <c r="S33">
+        <v>115</v>
+      </c>
+      <c r="T33">
+        <v>1.32</v>
+      </c>
+      <c r="U33" t="s">
+        <v>34</v>
+      </c>
+      <c r="W33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34">
+        <v>1708815600</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <v>10000</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45346.95833333334</v>
+      </c>
+      <c r="F34" s="2">
+        <v>45346</v>
+      </c>
+      <c r="G34">
+        <v>23</v>
+      </c>
+      <c r="H34">
+        <v>9.4</v>
+      </c>
+      <c r="I34">
+        <v>9.4</v>
+      </c>
+      <c r="J34">
+        <v>9.4</v>
+      </c>
+      <c r="K34">
+        <v>9.4</v>
+      </c>
+      <c r="L34">
+        <v>1016</v>
+      </c>
+      <c r="M34">
+        <v>1016</v>
+      </c>
+      <c r="N34">
+        <v>957</v>
+      </c>
+      <c r="O34">
+        <v>69</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>100</v>
+      </c>
+      <c r="R34">
+        <v>1.33</v>
+      </c>
+      <c r="S34">
+        <v>108</v>
+      </c>
+      <c r="T34">
+        <v>1.25</v>
+      </c>
+      <c r="U34" t="s">
+        <v>34</v>
+      </c>
+      <c r="W34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35">
+        <v>1708819200</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35">
+        <v>10000</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45347</v>
+      </c>
+      <c r="F35" s="2">
+        <v>45347</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="I35">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="J35">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="K35">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="L35">
+        <v>1016</v>
+      </c>
+      <c r="M35">
+        <v>1016</v>
+      </c>
+      <c r="N35">
+        <v>957</v>
+      </c>
+      <c r="O35">
+        <v>70</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>100</v>
+      </c>
+      <c r="R35">
+        <v>0.99</v>
+      </c>
+      <c r="S35">
+        <v>129</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35" t="s">
+        <v>34</v>
+      </c>
+      <c r="W35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36">
+        <v>1708822800</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36">
+        <v>10000</v>
+      </c>
+      <c r="D36">
+        <v>0.08</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45347.04166666666</v>
+      </c>
+      <c r="F36" s="2">
+        <v>45347</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>9.24</v>
+      </c>
+      <c r="I36">
+        <v>9.24</v>
+      </c>
+      <c r="J36">
+        <v>9.24</v>
+      </c>
+      <c r="K36">
+        <v>9.24</v>
+      </c>
+      <c r="L36">
+        <v>1016</v>
+      </c>
+      <c r="M36">
+        <v>1016</v>
+      </c>
+      <c r="N36">
+        <v>957</v>
+      </c>
+      <c r="O36">
+        <v>71</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>100</v>
+      </c>
+      <c r="R36">
+        <v>0.78</v>
+      </c>
+      <c r="S36">
+        <v>125</v>
+      </c>
+      <c r="T36">
+        <v>0.82</v>
+      </c>
+      <c r="U36" t="s">
+        <v>34</v>
+      </c>
+      <c r="W36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37">
+        <v>1708826400</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37">
+        <v>10000</v>
+      </c>
+      <c r="D37">
+        <v>0.08</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45347.08333333334</v>
+      </c>
+      <c r="F37" s="2">
+        <v>45347</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I37">
+        <v>8.49</v>
+      </c>
+      <c r="J37">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="K37">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="L37">
+        <v>1016</v>
+      </c>
+      <c r="M37">
+        <v>1016</v>
+      </c>
+      <c r="N37">
+        <v>957</v>
+      </c>
+      <c r="O37">
         <v>72</v>
       </c>
-      <c r="R31">
-        <v>0.9</v>
-      </c>
-      <c r="S31">
-        <v>239</v>
-      </c>
-      <c r="T31">
-        <v>1.14</v>
-      </c>
-      <c r="U31" t="s">
-        <v>28</v>
-      </c>
-      <c r="V31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22">
-      <c r="A32">
-        <v>1708714800</v>
-      </c>
-      <c r="B32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32">
-        <v>10000</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2">
-        <v>45345.79166666666</v>
-      </c>
-      <c r="F32" s="2">
-        <v>45345</v>
-      </c>
-      <c r="G32">
-        <v>19</v>
-      </c>
-      <c r="H32">
-        <v>8.15</v>
-      </c>
-      <c r="I32">
-        <v>8.15</v>
-      </c>
-      <c r="J32">
-        <v>8.15</v>
-      </c>
-      <c r="K32">
-        <v>8.15</v>
-      </c>
-      <c r="L32">
-        <v>1012</v>
-      </c>
-      <c r="M32">
-        <v>1012</v>
-      </c>
-      <c r="N32">
-        <v>985</v>
-      </c>
-      <c r="O32">
-        <v>72</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>57</v>
-      </c>
-      <c r="R32">
-        <v>1.02</v>
-      </c>
-      <c r="S32">
-        <v>245</v>
-      </c>
-      <c r="T32">
-        <v>1.24</v>
-      </c>
-      <c r="U32" t="s">
-        <v>28</v>
-      </c>
-      <c r="V32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22">
-      <c r="A33">
-        <v>1708718400</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33">
-        <v>10000</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33" s="2">
-        <v>45345.83333333334</v>
-      </c>
-      <c r="F33" s="2">
-        <v>45345</v>
-      </c>
-      <c r="G33">
-        <v>20</v>
-      </c>
-      <c r="H33">
-        <v>7.77</v>
-      </c>
-      <c r="I33">
-        <v>7.77</v>
-      </c>
-      <c r="J33">
-        <v>7.77</v>
-      </c>
-      <c r="K33">
-        <v>7.77</v>
-      </c>
-      <c r="L33">
-        <v>1012</v>
-      </c>
-      <c r="M33">
-        <v>1012</v>
-      </c>
-      <c r="N33">
-        <v>985</v>
-      </c>
-      <c r="O33">
-        <v>74</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>43</v>
-      </c>
-      <c r="R33">
-        <v>0.63</v>
-      </c>
-      <c r="S33">
-        <v>231</v>
-      </c>
-      <c r="T33">
-        <v>0.8</v>
-      </c>
-      <c r="U33" t="s">
-        <v>28</v>
-      </c>
-      <c r="V33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22">
-      <c r="A34">
-        <v>1708722000</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34">
-        <v>10000</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34" s="2">
-        <v>45345.875</v>
-      </c>
-      <c r="F34" s="2">
-        <v>45345</v>
-      </c>
-      <c r="G34">
-        <v>21</v>
-      </c>
-      <c r="H34">
-        <v>7.49</v>
-      </c>
-      <c r="I34">
-        <v>7.49</v>
-      </c>
-      <c r="J34">
-        <v>7.49</v>
-      </c>
-      <c r="K34">
-        <v>7.49</v>
-      </c>
-      <c r="L34">
-        <v>1012</v>
-      </c>
-      <c r="M34">
-        <v>1012</v>
-      </c>
-      <c r="N34">
-        <v>985</v>
-      </c>
-      <c r="O34">
-        <v>74</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>36</v>
-      </c>
-      <c r="R34">
-        <v>0.55</v>
-      </c>
-      <c r="S34">
-        <v>126</v>
-      </c>
-      <c r="T34">
-        <v>0.86</v>
-      </c>
-      <c r="U34" t="s">
-        <v>28</v>
-      </c>
-      <c r="V34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22">
-      <c r="A35">
-        <v>1708725600</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35">
-        <v>10000</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35" s="2">
-        <v>45345.91666666666</v>
-      </c>
-      <c r="F35" s="2">
-        <v>45345</v>
-      </c>
-      <c r="G35">
-        <v>22</v>
-      </c>
-      <c r="H35">
-        <v>7.14</v>
-      </c>
-      <c r="I35">
-        <v>7.14</v>
-      </c>
-      <c r="J35">
-        <v>7.14</v>
-      </c>
-      <c r="K35">
-        <v>7.14</v>
-      </c>
-      <c r="L35">
-        <v>1012</v>
-      </c>
-      <c r="M35">
-        <v>1012</v>
-      </c>
-      <c r="N35">
-        <v>985</v>
-      </c>
-      <c r="O35">
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>100</v>
+      </c>
+      <c r="R37">
+        <v>1.56</v>
+      </c>
+      <c r="S37">
+        <v>83</v>
+      </c>
+      <c r="T37">
+        <v>1.49</v>
+      </c>
+      <c r="U37" t="s">
+        <v>34</v>
+      </c>
+      <c r="W37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38">
+        <v>1708830000</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38">
+        <v>10000</v>
+      </c>
+      <c r="D38">
+        <v>0.04</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45347.125</v>
+      </c>
+      <c r="F38" s="2">
+        <v>45347</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="I38">
+        <v>7.35</v>
+      </c>
+      <c r="J38">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="K38">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="L38">
+        <v>1016</v>
+      </c>
+      <c r="M38">
+        <v>1016</v>
+      </c>
+      <c r="N38">
+        <v>957</v>
+      </c>
+      <c r="O38">
         <v>75</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>33</v>
-      </c>
-      <c r="R35">
-        <v>0.41</v>
-      </c>
-      <c r="S35">
-        <v>96</v>
-      </c>
-      <c r="T35">
-        <v>0.99</v>
-      </c>
-      <c r="U35" t="s">
-        <v>28</v>
-      </c>
-      <c r="V35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22">
-      <c r="A36">
-        <v>1708729200</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36">
-        <v>10000</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36" s="2">
-        <v>45345.95833333334</v>
-      </c>
-      <c r="F36" s="2">
-        <v>45345</v>
-      </c>
-      <c r="G36">
-        <v>23</v>
-      </c>
-      <c r="H36">
-        <v>6.97</v>
-      </c>
-      <c r="I36">
-        <v>6.97</v>
-      </c>
-      <c r="J36">
-        <v>6.97</v>
-      </c>
-      <c r="K36">
-        <v>6.97</v>
-      </c>
-      <c r="L36">
-        <v>1012</v>
-      </c>
-      <c r="M36">
-        <v>1012</v>
-      </c>
-      <c r="N36">
-        <v>985</v>
-      </c>
-      <c r="O36">
-        <v>76</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>42</v>
-      </c>
-      <c r="R36">
-        <v>0.21</v>
-      </c>
-      <c r="S36">
-        <v>10</v>
-      </c>
-      <c r="T36">
-        <v>0.87</v>
-      </c>
-      <c r="U36" t="s">
-        <v>28</v>
-      </c>
-      <c r="V36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22">
-      <c r="A37">
-        <v>1708732800</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37">
-        <v>10000</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37" s="2">
-        <v>45346</v>
-      </c>
-      <c r="F37" s="2">
-        <v>45346</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>6.96</v>
-      </c>
-      <c r="I37">
-        <v>6.96</v>
-      </c>
-      <c r="J37">
-        <v>6.96</v>
-      </c>
-      <c r="K37">
-        <v>6.96</v>
-      </c>
-      <c r="L37">
-        <v>1011</v>
-      </c>
-      <c r="M37">
-        <v>1011</v>
-      </c>
-      <c r="N37">
-        <v>984</v>
-      </c>
-      <c r="O37">
-        <v>76</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>50</v>
-      </c>
-      <c r="R37">
-        <v>0.48</v>
-      </c>
-      <c r="S37">
-        <v>54</v>
-      </c>
-      <c r="T37">
-        <v>0.97</v>
-      </c>
-      <c r="U37" t="s">
-        <v>28</v>
-      </c>
-      <c r="V37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22">
-      <c r="A38">
-        <v>1708736400</v>
-      </c>
-      <c r="B38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38">
-        <v>10000</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38" s="2">
-        <v>45346.04166666666</v>
-      </c>
-      <c r="F38" s="2">
-        <v>45346</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>6.84</v>
-      </c>
-      <c r="I38">
-        <v>6.84</v>
-      </c>
-      <c r="J38">
-        <v>6.84</v>
-      </c>
-      <c r="K38">
-        <v>6.84</v>
-      </c>
-      <c r="L38">
-        <v>1011</v>
-      </c>
-      <c r="M38">
-        <v>1011</v>
-      </c>
-      <c r="N38">
-        <v>984</v>
-      </c>
-      <c r="O38">
-        <v>76</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -3181,27 +3346,27 @@
         <v>100</v>
       </c>
       <c r="R38">
-        <v>0.75</v>
+        <v>1.82</v>
       </c>
       <c r="S38">
-        <v>342</v>
+        <v>94</v>
       </c>
       <c r="T38">
-        <v>0.96</v>
+        <v>1.68</v>
       </c>
       <c r="U38" t="s">
-        <v>28</v>
-      </c>
-      <c r="V38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22">
+        <v>34</v>
+      </c>
+      <c r="W38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39">
-        <v>1708740000</v>
+        <v>1708833600</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C39">
         <v>10000</v>
@@ -3210,37 +3375,37 @@
         <v>0</v>
       </c>
       <c r="E39" s="2">
-        <v>45346.08333333334</v>
+        <v>45347.16666666666</v>
       </c>
       <c r="F39" s="2">
-        <v>45346</v>
+        <v>45347</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H39">
-        <v>6.68</v>
+        <v>7.99</v>
       </c>
       <c r="I39">
-        <v>6.68</v>
+        <v>7.29</v>
       </c>
       <c r="J39">
-        <v>6.68</v>
+        <v>7.99</v>
       </c>
       <c r="K39">
-        <v>6.68</v>
+        <v>7.99</v>
       </c>
       <c r="L39">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="M39">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="N39">
-        <v>985</v>
+        <v>957</v>
       </c>
       <c r="O39">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -3249,27 +3414,27 @@
         <v>100</v>
       </c>
       <c r="R39">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="S39">
-        <v>288</v>
+        <v>101</v>
       </c>
       <c r="T39">
-        <v>0.99</v>
+        <v>1.46</v>
       </c>
       <c r="U39" t="s">
-        <v>28</v>
-      </c>
-      <c r="V39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22">
+        <v>34</v>
+      </c>
+      <c r="W39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40">
-        <v>1708743600</v>
+        <v>1708837200</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C40">
         <v>10000</v>
@@ -3278,37 +3443,37 @@
         <v>0</v>
       </c>
       <c r="E40" s="2">
-        <v>45346.125</v>
+        <v>45347.20833333334</v>
       </c>
       <c r="F40" s="2">
-        <v>45346</v>
+        <v>45347</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H40">
-        <v>6.7</v>
+        <v>7.75</v>
       </c>
       <c r="I40">
-        <v>6.7</v>
+        <v>6.95</v>
       </c>
       <c r="J40">
-        <v>6.7</v>
+        <v>7.75</v>
       </c>
       <c r="K40">
-        <v>6.7</v>
+        <v>7.75</v>
       </c>
       <c r="L40">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="M40">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="N40">
-        <v>985</v>
+        <v>957</v>
       </c>
       <c r="O40">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -3317,24 +3482,24 @@
         <v>100</v>
       </c>
       <c r="R40">
-        <v>1.22</v>
+        <v>1.62</v>
       </c>
       <c r="S40">
-        <v>249</v>
+        <v>92</v>
       </c>
       <c r="T40">
-        <v>1.23</v>
+        <v>1.49</v>
       </c>
       <c r="U40" t="s">
-        <v>28</v>
-      </c>
-      <c r="V40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22">
+        <v>34</v>
+      </c>
+      <c r="W40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41">
-        <v>1708747200</v>
+        <v>1708840800</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
@@ -3346,37 +3511,37 @@
         <v>0</v>
       </c>
       <c r="E41" s="2">
-        <v>45346.16666666666</v>
+        <v>45347.25</v>
       </c>
       <c r="F41" s="2">
-        <v>45346</v>
+        <v>45347</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H41">
-        <v>6.6</v>
+        <v>8.18</v>
       </c>
       <c r="I41">
-        <v>6.6</v>
+        <v>7.43</v>
       </c>
       <c r="J41">
-        <v>6.6</v>
+        <v>8.18</v>
       </c>
       <c r="K41">
-        <v>6.6</v>
+        <v>8.18</v>
       </c>
       <c r="L41">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="M41">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="N41">
-        <v>985</v>
+        <v>957</v>
       </c>
       <c r="O41">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -3385,24 +3550,24 @@
         <v>100</v>
       </c>
       <c r="R41">
-        <v>0.9</v>
+        <v>1.63</v>
       </c>
       <c r="S41">
-        <v>191</v>
+        <v>90</v>
       </c>
       <c r="T41">
-        <v>1.04</v>
+        <v>1.47</v>
       </c>
       <c r="U41" t="s">
-        <v>28</v>
-      </c>
-      <c r="V41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22">
+        <v>33</v>
+      </c>
+      <c r="W41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42">
-        <v>1708750800</v>
+        <v>1708844400</v>
       </c>
       <c r="B42" t="s">
         <v>23</v>
@@ -3414,37 +3579,37 @@
         <v>0</v>
       </c>
       <c r="E42" s="2">
-        <v>45346.20833333334</v>
+        <v>45347.29166666666</v>
       </c>
       <c r="F42" s="2">
-        <v>45346</v>
+        <v>45347</v>
       </c>
       <c r="G42">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H42">
-        <v>6.66</v>
+        <v>9.5</v>
       </c>
       <c r="I42">
-        <v>6.66</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="J42">
-        <v>6.66</v>
+        <v>9.5</v>
       </c>
       <c r="K42">
-        <v>6.66</v>
+        <v>9.5</v>
       </c>
       <c r="L42">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="M42">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="N42">
-        <v>986</v>
+        <v>957</v>
       </c>
       <c r="O42">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -3453,27 +3618,27 @@
         <v>100</v>
       </c>
       <c r="R42">
-        <v>0.53</v>
+        <v>1.69</v>
       </c>
       <c r="S42">
-        <v>228</v>
+        <v>83</v>
       </c>
       <c r="T42">
-        <v>1</v>
+        <v>2.11</v>
       </c>
       <c r="U42" t="s">
-        <v>28</v>
-      </c>
-      <c r="V42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22">
+        <v>33</v>
+      </c>
+      <c r="W42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43">
-        <v>1708754400</v>
+        <v>1708848000</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C43">
         <v>10000</v>
@@ -3482,37 +3647,37 @@
         <v>0</v>
       </c>
       <c r="E43" s="2">
-        <v>45346.25</v>
+        <v>45347.33333333334</v>
       </c>
       <c r="F43" s="2">
-        <v>45346</v>
+        <v>45347</v>
       </c>
       <c r="G43">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H43">
-        <v>7.28</v>
+        <v>11.16</v>
       </c>
       <c r="I43">
-        <v>7.28</v>
+        <v>10</v>
       </c>
       <c r="J43">
-        <v>7.28</v>
+        <v>11.16</v>
       </c>
       <c r="K43">
-        <v>7.28</v>
+        <v>11.16</v>
       </c>
       <c r="L43">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="M43">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="N43">
-        <v>986</v>
+        <v>957</v>
       </c>
       <c r="O43">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="P43">
         <v>0</v>
@@ -3521,27 +3686,27 @@
         <v>100</v>
       </c>
       <c r="R43">
-        <v>0.54</v>
+        <v>1.6</v>
       </c>
       <c r="S43">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="T43">
-        <v>1.05</v>
+        <v>2.27</v>
       </c>
       <c r="U43" t="s">
-        <v>27</v>
-      </c>
-      <c r="V43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22">
+        <v>33</v>
+      </c>
+      <c r="W43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44">
-        <v>1708758000</v>
+        <v>1708851600</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C44">
         <v>10000</v>
@@ -3550,37 +3715,37 @@
         <v>0</v>
       </c>
       <c r="E44" s="2">
-        <v>45346.29166666666</v>
+        <v>45347.375</v>
       </c>
       <c r="F44" s="2">
-        <v>45346</v>
+        <v>45347</v>
       </c>
       <c r="G44">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H44">
-        <v>8.91</v>
+        <v>12.5</v>
       </c>
       <c r="I44">
-        <v>8.91</v>
+        <v>11.29</v>
       </c>
       <c r="J44">
-        <v>8.91</v>
+        <v>12.5</v>
       </c>
       <c r="K44">
-        <v>8.91</v>
+        <v>12.5</v>
       </c>
       <c r="L44">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="M44">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="N44">
-        <v>987</v>
+        <v>957</v>
       </c>
       <c r="O44">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="P44">
         <v>0</v>
@@ -3589,27 +3754,27 @@
         <v>100</v>
       </c>
       <c r="R44">
-        <v>0.47</v>
+        <v>1.24</v>
       </c>
       <c r="S44">
-        <v>285</v>
+        <v>83</v>
       </c>
       <c r="T44">
-        <v>1.09</v>
+        <v>2.06</v>
       </c>
       <c r="U44" t="s">
-        <v>27</v>
-      </c>
-      <c r="V44" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22">
+        <v>33</v>
+      </c>
+      <c r="W44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45">
-        <v>1708761600</v>
+        <v>1708855200</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C45">
         <v>10000</v>
@@ -3618,25 +3783,25 @@
         <v>0</v>
       </c>
       <c r="E45" s="2">
-        <v>45346.33333333334</v>
+        <v>45347.41666666666</v>
       </c>
       <c r="F45" s="2">
-        <v>45346</v>
+        <v>45347</v>
       </c>
       <c r="G45">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H45">
-        <v>10.58</v>
+        <v>13.52</v>
       </c>
       <c r="I45">
-        <v>9.31</v>
+        <v>12.31</v>
       </c>
       <c r="J45">
-        <v>10.58</v>
+        <v>13.52</v>
       </c>
       <c r="K45">
-        <v>10.58</v>
+        <v>13.52</v>
       </c>
       <c r="L45">
         <v>1014</v>
@@ -3645,10 +3810,10 @@
         <v>1014</v>
       </c>
       <c r="N45">
-        <v>987</v>
+        <v>956</v>
       </c>
       <c r="O45">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -3657,27 +3822,27 @@
         <v>100</v>
       </c>
       <c r="R45">
-        <v>0.19</v>
+        <v>0.58</v>
       </c>
       <c r="S45">
-        <v>212</v>
+        <v>131</v>
       </c>
       <c r="T45">
-        <v>1.14</v>
+        <v>1.94</v>
       </c>
       <c r="U45" t="s">
-        <v>27</v>
-      </c>
-      <c r="V45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22">
+        <v>33</v>
+      </c>
+      <c r="W45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46">
-        <v>1708765200</v>
+        <v>1708858800</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C46">
         <v>10000</v>
@@ -3686,37 +3851,37 @@
         <v>0</v>
       </c>
       <c r="E46" s="2">
-        <v>45346.375</v>
+        <v>45347.45833333334</v>
       </c>
       <c r="F46" s="2">
-        <v>45346</v>
+        <v>45347</v>
       </c>
       <c r="G46">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H46">
-        <v>11.88</v>
+        <v>14.16</v>
       </c>
       <c r="I46">
-        <v>10.61</v>
+        <v>12.94</v>
       </c>
       <c r="J46">
-        <v>11.88</v>
+        <v>14.16</v>
       </c>
       <c r="K46">
-        <v>11.88</v>
+        <v>14.16</v>
       </c>
       <c r="L46">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="M46">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="N46">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="O46">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -3725,27 +3890,27 @@
         <v>100</v>
       </c>
       <c r="R46">
-        <v>0.34</v>
+        <v>0.79</v>
       </c>
       <c r="S46">
-        <v>122</v>
+        <v>212</v>
       </c>
       <c r="T46">
-        <v>1.39</v>
+        <v>2.16</v>
       </c>
       <c r="U46" t="s">
-        <v>27</v>
-      </c>
-      <c r="V46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22">
+        <v>33</v>
+      </c>
+      <c r="W46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47">
-        <v>1708768800</v>
+        <v>1708862400</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C47">
         <v>10000</v>
@@ -3754,37 +3919,37 @@
         <v>0</v>
       </c>
       <c r="E47" s="2">
-        <v>45346.41666666666</v>
+        <v>45347.5</v>
       </c>
       <c r="F47" s="2">
-        <v>45346</v>
+        <v>45347</v>
       </c>
       <c r="G47">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H47">
-        <v>13.04</v>
+        <v>14.13</v>
       </c>
       <c r="I47">
-        <v>11.81</v>
+        <v>12.93</v>
       </c>
       <c r="J47">
-        <v>13.04</v>
+        <v>14.13</v>
       </c>
       <c r="K47">
-        <v>13.04</v>
+        <v>14.13</v>
       </c>
       <c r="L47">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="M47">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="N47">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="O47">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -3793,27 +3958,27 @@
         <v>100</v>
       </c>
       <c r="R47">
-        <v>0.53</v>
+        <v>1.44</v>
       </c>
       <c r="S47">
-        <v>105</v>
+        <v>237</v>
       </c>
       <c r="T47">
-        <v>1.14</v>
+        <v>2.37</v>
       </c>
       <c r="U47" t="s">
-        <v>27</v>
-      </c>
-      <c r="V47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22">
+        <v>33</v>
+      </c>
+      <c r="W47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48">
-        <v>1708772400</v>
+        <v>1708866000</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C48">
         <v>10000</v>
@@ -3822,25 +3987,25 @@
         <v>0</v>
       </c>
       <c r="E48" s="2">
-        <v>45346.45833333334</v>
+        <v>45347.54166666666</v>
       </c>
       <c r="F48" s="2">
-        <v>45346</v>
+        <v>45347</v>
       </c>
       <c r="G48">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H48">
-        <v>13.71</v>
+        <v>13.97</v>
       </c>
       <c r="I48">
-        <v>12.52</v>
+        <v>12.78</v>
       </c>
       <c r="J48">
-        <v>13.71</v>
+        <v>13.97</v>
       </c>
       <c r="K48">
-        <v>13.71</v>
+        <v>13.97</v>
       </c>
       <c r="L48">
         <v>1013</v>
@@ -3849,10 +4014,10 @@
         <v>1013</v>
       </c>
       <c r="N48">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="O48">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -3861,27 +4026,27 @@
         <v>100</v>
       </c>
       <c r="R48">
-        <v>0.29</v>
+        <v>1.87</v>
       </c>
       <c r="S48">
-        <v>96</v>
+        <v>237</v>
       </c>
       <c r="T48">
-        <v>1.38</v>
+        <v>2.29</v>
       </c>
       <c r="U48" t="s">
-        <v>27</v>
-      </c>
-      <c r="V48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
+        <v>33</v>
+      </c>
+      <c r="W48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49">
-        <v>1708776000</v>
+        <v>1708869600</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C49">
         <v>10000</v>
@@ -3890,25 +4055,25 @@
         <v>0</v>
       </c>
       <c r="E49" s="2">
-        <v>45346.5</v>
+        <v>45347.58333333334</v>
       </c>
       <c r="F49" s="2">
-        <v>45346</v>
+        <v>45347</v>
       </c>
       <c r="G49">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H49">
-        <v>14.56</v>
+        <v>13.27</v>
       </c>
       <c r="I49">
-        <v>13.4</v>
+        <v>12.14</v>
       </c>
       <c r="J49">
-        <v>14.56</v>
+        <v>13.27</v>
       </c>
       <c r="K49">
-        <v>14.56</v>
+        <v>13.27</v>
       </c>
       <c r="L49">
         <v>1013</v>
@@ -3917,10 +4082,10 @@
         <v>1013</v>
       </c>
       <c r="N49">
-        <v>986</v>
+        <v>955</v>
       </c>
       <c r="O49">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -3929,19 +4094,3289 @@
         <v>100</v>
       </c>
       <c r="R49">
-        <v>0.42</v>
+        <v>1.89</v>
       </c>
       <c r="S49">
+        <v>240</v>
+      </c>
+      <c r="T49">
+        <v>2.68</v>
+      </c>
+      <c r="U49" t="s">
+        <v>33</v>
+      </c>
+      <c r="W49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50">
+        <v>1708873200</v>
+      </c>
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50">
+        <v>10000</v>
+      </c>
+      <c r="D50">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45347.625</v>
+      </c>
+      <c r="F50" s="2">
+        <v>45347</v>
+      </c>
+      <c r="G50">
+        <v>15</v>
+      </c>
+      <c r="H50">
+        <v>12.05</v>
+      </c>
+      <c r="I50">
+        <v>11.01</v>
+      </c>
+      <c r="J50">
+        <v>12.05</v>
+      </c>
+      <c r="K50">
+        <v>12.05</v>
+      </c>
+      <c r="L50">
+        <v>1013</v>
+      </c>
+      <c r="M50">
+        <v>1013</v>
+      </c>
+      <c r="N50">
+        <v>955</v>
+      </c>
+      <c r="O50">
+        <v>65</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>100</v>
+      </c>
+      <c r="R50">
+        <v>1.26</v>
+      </c>
+      <c r="S50">
+        <v>221</v>
+      </c>
+      <c r="T50">
+        <v>1.71</v>
+      </c>
+      <c r="U50" t="s">
+        <v>33</v>
+      </c>
+      <c r="W50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="A51">
+        <v>1708876800</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51">
+        <v>10000</v>
+      </c>
+      <c r="D51">
+        <v>0.15</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45347.66666666666</v>
+      </c>
+      <c r="F51" s="2">
+        <v>45347</v>
+      </c>
+      <c r="G51">
+        <v>16</v>
+      </c>
+      <c r="H51">
+        <v>11.13</v>
+      </c>
+      <c r="I51">
+        <v>10.13</v>
+      </c>
+      <c r="J51">
+        <v>11.13</v>
+      </c>
+      <c r="K51">
+        <v>11.13</v>
+      </c>
+      <c r="L51">
+        <v>1013</v>
+      </c>
+      <c r="M51">
+        <v>1013</v>
+      </c>
+      <c r="N51">
+        <v>955</v>
+      </c>
+      <c r="O51">
+        <v>70</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>100</v>
+      </c>
+      <c r="R51">
+        <v>1.04</v>
+      </c>
+      <c r="S51">
+        <v>167</v>
+      </c>
+      <c r="T51">
+        <v>1.49</v>
+      </c>
+      <c r="U51" t="s">
+        <v>34</v>
+      </c>
+      <c r="W51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="A52">
+        <v>1708880400</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52">
+        <v>10000</v>
+      </c>
+      <c r="D52">
+        <v>0.15</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45347.70833333334</v>
+      </c>
+      <c r="F52" s="2">
+        <v>45347</v>
+      </c>
+      <c r="G52">
+        <v>17</v>
+      </c>
+      <c r="H52">
+        <v>10.8</v>
+      </c>
+      <c r="I52">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="J52">
+        <v>10.8</v>
+      </c>
+      <c r="K52">
+        <v>10.8</v>
+      </c>
+      <c r="L52">
+        <v>1013</v>
+      </c>
+      <c r="M52">
+        <v>1013</v>
+      </c>
+      <c r="N52">
+        <v>955</v>
+      </c>
+      <c r="O52">
+        <v>74</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>100</v>
+      </c>
+      <c r="R52">
+        <v>1.48</v>
+      </c>
+      <c r="S52">
+        <v>136</v>
+      </c>
+      <c r="T52">
+        <v>2.25</v>
+      </c>
+      <c r="U52" t="s">
+        <v>34</v>
+      </c>
+      <c r="W52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
+      <c r="A53">
+        <v>1708884000</v>
+      </c>
+      <c r="B53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53">
+        <v>10000</v>
+      </c>
+      <c r="D53">
+        <v>0.19</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45347.75</v>
+      </c>
+      <c r="F53" s="2">
+        <v>45347</v>
+      </c>
+      <c r="G53">
+        <v>18</v>
+      </c>
+      <c r="H53">
+        <v>10.45</v>
+      </c>
+      <c r="I53">
+        <v>9.59</v>
+      </c>
+      <c r="J53">
+        <v>10.45</v>
+      </c>
+      <c r="K53">
+        <v>10.45</v>
+      </c>
+      <c r="L53">
+        <v>1013</v>
+      </c>
+      <c r="M53">
+        <v>1013</v>
+      </c>
+      <c r="N53">
+        <v>955</v>
+      </c>
+      <c r="O53">
+        <v>78</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>100</v>
+      </c>
+      <c r="R53">
+        <v>1.76</v>
+      </c>
+      <c r="S53">
+        <v>106</v>
+      </c>
+      <c r="T53">
+        <v>2.53</v>
+      </c>
+      <c r="U53" t="s">
+        <v>34</v>
+      </c>
+      <c r="W53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="A54">
+        <v>1708887600</v>
+      </c>
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54">
+        <v>10000</v>
+      </c>
+      <c r="D54">
+        <v>0.3</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45347.79166666666</v>
+      </c>
+      <c r="F54" s="2">
+        <v>45347</v>
+      </c>
+      <c r="G54">
+        <v>19</v>
+      </c>
+      <c r="H54">
+        <v>10.27</v>
+      </c>
+      <c r="I54">
+        <v>9.42</v>
+      </c>
+      <c r="J54">
+        <v>10.27</v>
+      </c>
+      <c r="K54">
+        <v>10.27</v>
+      </c>
+      <c r="L54">
+        <v>1014</v>
+      </c>
+      <c r="M54">
+        <v>1014</v>
+      </c>
+      <c r="N54">
+        <v>955</v>
+      </c>
+      <c r="O54">
+        <v>79</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>100</v>
+      </c>
+      <c r="R54">
+        <v>1.68</v>
+      </c>
+      <c r="S54">
+        <v>99</v>
+      </c>
+      <c r="T54">
+        <v>2.21</v>
+      </c>
+      <c r="U54" t="s">
+        <v>34</v>
+      </c>
+      <c r="W54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
+      <c r="A55">
+        <v>1708891200</v>
+      </c>
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55">
+        <v>10000</v>
+      </c>
+      <c r="D55">
+        <v>0.3</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45347.83333333334</v>
+      </c>
+      <c r="F55" s="2">
+        <v>45347</v>
+      </c>
+      <c r="G55">
+        <v>20</v>
+      </c>
+      <c r="H55">
+        <v>9.99</v>
+      </c>
+      <c r="I55">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J55">
+        <v>9.99</v>
+      </c>
+      <c r="K55">
+        <v>9.99</v>
+      </c>
+      <c r="L55">
+        <v>1014</v>
+      </c>
+      <c r="M55">
+        <v>1014</v>
+      </c>
+      <c r="N55">
+        <v>955</v>
+      </c>
+      <c r="O55">
+        <v>81</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>100</v>
+      </c>
+      <c r="R55">
+        <v>1.35</v>
+      </c>
+      <c r="S55">
+        <v>103</v>
+      </c>
+      <c r="T55">
+        <v>1.6</v>
+      </c>
+      <c r="U55" t="s">
+        <v>34</v>
+      </c>
+      <c r="V55">
+        <v>0.11</v>
+      </c>
+      <c r="W55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
+      <c r="A56">
+        <v>1708894800</v>
+      </c>
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56">
+        <v>10000</v>
+      </c>
+      <c r="D56">
+        <v>0.31</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45347.875</v>
+      </c>
+      <c r="F56" s="2">
+        <v>45347</v>
+      </c>
+      <c r="G56">
+        <v>21</v>
+      </c>
+      <c r="H56">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="I56">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="J56">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="K56">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="L56">
+        <v>1014</v>
+      </c>
+      <c r="M56">
+        <v>1014</v>
+      </c>
+      <c r="N56">
+        <v>955</v>
+      </c>
+      <c r="O56">
+        <v>84</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>100</v>
+      </c>
+      <c r="R56">
+        <v>1.38</v>
+      </c>
+      <c r="S56">
+        <v>77</v>
+      </c>
+      <c r="T56">
+        <v>1.4</v>
+      </c>
+      <c r="U56" t="s">
+        <v>34</v>
+      </c>
+      <c r="V56">
+        <v>0.22</v>
+      </c>
+      <c r="W56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="A57">
+        <v>1708898400</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57">
+        <v>10000</v>
+      </c>
+      <c r="D57">
+        <v>0.31</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45347.91666666666</v>
+      </c>
+      <c r="F57" s="2">
+        <v>45347</v>
+      </c>
+      <c r="G57">
+        <v>22</v>
+      </c>
+      <c r="H57">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="I57">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="J57">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="K57">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="L57">
+        <v>1013</v>
+      </c>
+      <c r="M57">
+        <v>1013</v>
+      </c>
+      <c r="N57">
+        <v>955</v>
+      </c>
+      <c r="O57">
+        <v>85</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>100</v>
+      </c>
+      <c r="R57">
+        <v>1.64</v>
+      </c>
+      <c r="S57">
+        <v>62</v>
+      </c>
+      <c r="T57">
+        <v>1.78</v>
+      </c>
+      <c r="U57" t="s">
+        <v>34</v>
+      </c>
+      <c r="W57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58">
+        <v>1708902000</v>
+      </c>
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58">
+        <v>10000</v>
+      </c>
+      <c r="D58">
+        <v>0.31</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45347.95833333334</v>
+      </c>
+      <c r="F58" s="2">
+        <v>45347</v>
+      </c>
+      <c r="G58">
+        <v>23</v>
+      </c>
+      <c r="H58">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="I58">
+        <v>8.01</v>
+      </c>
+      <c r="J58">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="K58">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="L58">
+        <v>1013</v>
+      </c>
+      <c r="M58">
+        <v>1013</v>
+      </c>
+      <c r="N58">
+        <v>955</v>
+      </c>
+      <c r="O58">
+        <v>88</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>96</v>
+      </c>
+      <c r="R58">
+        <v>1.65</v>
+      </c>
+      <c r="S58">
+        <v>67</v>
+      </c>
+      <c r="T58">
+        <v>1.67</v>
+      </c>
+      <c r="U58" t="s">
+        <v>34</v>
+      </c>
+      <c r="W58" t="s">
         <v>91</v>
       </c>
-      <c r="T49">
-        <v>1.51</v>
-      </c>
-      <c r="U49" t="s">
+    </row>
+    <row r="59" spans="1:23">
+      <c r="A59">
+        <v>1708905600</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59">
+        <v>10000</v>
+      </c>
+      <c r="D59">
+        <v>0.16</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45348</v>
+      </c>
+      <c r="F59" s="2">
+        <v>45348</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>8.34</v>
+      </c>
+      <c r="I59">
+        <v>7.7</v>
+      </c>
+      <c r="J59">
+        <v>8.34</v>
+      </c>
+      <c r="K59">
+        <v>8.34</v>
+      </c>
+      <c r="L59">
+        <v>1014</v>
+      </c>
+      <c r="M59">
+        <v>1014</v>
+      </c>
+      <c r="N59">
+        <v>955</v>
+      </c>
+      <c r="O59">
+        <v>88</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>96</v>
+      </c>
+      <c r="R59">
+        <v>1.55</v>
+      </c>
+      <c r="S59">
+        <v>85</v>
+      </c>
+      <c r="T59">
+        <v>1.47</v>
+      </c>
+      <c r="U59" t="s">
+        <v>34</v>
+      </c>
+      <c r="W59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60">
+        <v>1708909200</v>
+      </c>
+      <c r="B60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60">
+        <v>10000</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45348.04166666666</v>
+      </c>
+      <c r="F60" s="2">
+        <v>45348</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>8.69</v>
+      </c>
+      <c r="I60">
+        <v>8.26</v>
+      </c>
+      <c r="J60">
+        <v>8.69</v>
+      </c>
+      <c r="K60">
+        <v>8.69</v>
+      </c>
+      <c r="L60">
+        <v>1013</v>
+      </c>
+      <c r="M60">
+        <v>1013</v>
+      </c>
+      <c r="N60">
+        <v>954</v>
+      </c>
+      <c r="O60">
+        <v>85</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>100</v>
+      </c>
+      <c r="R60">
+        <v>1.41</v>
+      </c>
+      <c r="S60">
+        <v>85</v>
+      </c>
+      <c r="T60">
+        <v>1.38</v>
+      </c>
+      <c r="U60" t="s">
+        <v>34</v>
+      </c>
+      <c r="W60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
+      <c r="A61">
+        <v>1708912800</v>
+      </c>
+      <c r="B61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61">
+        <v>10000</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45348.08333333334</v>
+      </c>
+      <c r="F61" s="2">
+        <v>45348</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>8.19</v>
+      </c>
+      <c r="I61">
+        <v>7.33</v>
+      </c>
+      <c r="J61">
+        <v>8.19</v>
+      </c>
+      <c r="K61">
+        <v>8.19</v>
+      </c>
+      <c r="L61">
+        <v>1013</v>
+      </c>
+      <c r="M61">
+        <v>1013</v>
+      </c>
+      <c r="N61">
+        <v>954</v>
+      </c>
+      <c r="O61">
+        <v>86</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>99</v>
+      </c>
+      <c r="R61">
+        <v>1.74</v>
+      </c>
+      <c r="S61">
+        <v>73</v>
+      </c>
+      <c r="T61">
+        <v>1.66</v>
+      </c>
+      <c r="U61" t="s">
+        <v>34</v>
+      </c>
+      <c r="W61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
+      <c r="A62">
+        <v>1708916400</v>
+      </c>
+      <c r="B62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62">
+        <v>10000</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45348.125</v>
+      </c>
+      <c r="F62" s="2">
+        <v>45348</v>
+      </c>
+      <c r="G62">
+        <v>3</v>
+      </c>
+      <c r="H62">
+        <v>7.52</v>
+      </c>
+      <c r="I62">
+        <v>6.3</v>
+      </c>
+      <c r="J62">
+        <v>7.52</v>
+      </c>
+      <c r="K62">
+        <v>7.52</v>
+      </c>
+      <c r="L62">
+        <v>1013</v>
+      </c>
+      <c r="M62">
+        <v>1013</v>
+      </c>
+      <c r="N62">
+        <v>954</v>
+      </c>
+      <c r="O62">
+        <v>87</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>98</v>
+      </c>
+      <c r="R62">
+        <v>2</v>
+      </c>
+      <c r="S62">
+        <v>80</v>
+      </c>
+      <c r="T62">
+        <v>1.82</v>
+      </c>
+      <c r="U62" t="s">
+        <v>34</v>
+      </c>
+      <c r="W62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
+      <c r="A63">
+        <v>1708920000</v>
+      </c>
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63">
+        <v>10000</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45348.16666666666</v>
+      </c>
+      <c r="F63" s="2">
+        <v>45348</v>
+      </c>
+      <c r="G63">
+        <v>4</v>
+      </c>
+      <c r="H63">
+        <v>7.21</v>
+      </c>
+      <c r="I63">
+        <v>5.94</v>
+      </c>
+      <c r="J63">
+        <v>7.21</v>
+      </c>
+      <c r="K63">
+        <v>7.21</v>
+      </c>
+      <c r="L63">
+        <v>1013</v>
+      </c>
+      <c r="M63">
+        <v>1013</v>
+      </c>
+      <c r="N63">
+        <v>954</v>
+      </c>
+      <c r="O63">
+        <v>86</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>97</v>
+      </c>
+      <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>86</v>
+      </c>
+      <c r="T63">
+        <v>1.81</v>
+      </c>
+      <c r="U63" t="s">
+        <v>34</v>
+      </c>
+      <c r="W63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
+      <c r="A64">
+        <v>1708923600</v>
+      </c>
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64">
+        <v>10000</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45348.20833333334</v>
+      </c>
+      <c r="F64" s="2">
+        <v>45348</v>
+      </c>
+      <c r="G64">
+        <v>5</v>
+      </c>
+      <c r="H64">
+        <v>6.98</v>
+      </c>
+      <c r="I64">
+        <v>5.56</v>
+      </c>
+      <c r="J64">
+        <v>6.98</v>
+      </c>
+      <c r="K64">
+        <v>6.98</v>
+      </c>
+      <c r="L64">
+        <v>1014</v>
+      </c>
+      <c r="M64">
+        <v>1014</v>
+      </c>
+      <c r="N64">
+        <v>954</v>
+      </c>
+      <c r="O64">
+        <v>85</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>94</v>
+      </c>
+      <c r="R64">
+        <v>2.12</v>
+      </c>
+      <c r="S64">
+        <v>87</v>
+      </c>
+      <c r="T64">
+        <v>1.88</v>
+      </c>
+      <c r="U64" t="s">
+        <v>34</v>
+      </c>
+      <c r="W64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
+      <c r="A65">
+        <v>1708927200</v>
+      </c>
+      <c r="B65" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65">
+        <v>10000</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45348.25</v>
+      </c>
+      <c r="F65" s="2">
+        <v>45348</v>
+      </c>
+      <c r="G65">
+        <v>6</v>
+      </c>
+      <c r="H65">
+        <v>7.47</v>
+      </c>
+      <c r="I65">
+        <v>6.29</v>
+      </c>
+      <c r="J65">
+        <v>7.47</v>
+      </c>
+      <c r="K65">
+        <v>7.47</v>
+      </c>
+      <c r="L65">
+        <v>1014</v>
+      </c>
+      <c r="M65">
+        <v>1014</v>
+      </c>
+      <c r="N65">
+        <v>955</v>
+      </c>
+      <c r="O65">
+        <v>82</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>85</v>
+      </c>
+      <c r="R65">
+        <v>1.95</v>
+      </c>
+      <c r="S65">
+        <v>84</v>
+      </c>
+      <c r="T65">
+        <v>1.7</v>
+      </c>
+      <c r="U65" t="s">
+        <v>33</v>
+      </c>
+      <c r="W65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
+      <c r="A66">
+        <v>1708930800</v>
+      </c>
+      <c r="B66" t="s">
         <v>27</v>
       </c>
-      <c r="V49" t="s">
-        <v>76</v>
+      <c r="C66">
+        <v>10000</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45348.29166666666</v>
+      </c>
+      <c r="F66" s="2">
+        <v>45348</v>
+      </c>
+      <c r="G66">
+        <v>7</v>
+      </c>
+      <c r="H66">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="I66">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="J66">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="K66">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="L66">
+        <v>1014</v>
+      </c>
+      <c r="M66">
+        <v>1014</v>
+      </c>
+      <c r="N66">
+        <v>955</v>
+      </c>
+      <c r="O66">
+        <v>73</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>73</v>
+      </c>
+      <c r="R66">
+        <v>1.52</v>
+      </c>
+      <c r="S66">
+        <v>80</v>
+      </c>
+      <c r="T66">
+        <v>2.11</v>
+      </c>
+      <c r="U66" t="s">
+        <v>33</v>
+      </c>
+      <c r="W66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
+      <c r="A67">
+        <v>1708934400</v>
+      </c>
+      <c r="B67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67">
+        <v>10000</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45348.33333333334</v>
+      </c>
+      <c r="F67" s="2">
+        <v>45348</v>
+      </c>
+      <c r="G67">
+        <v>8</v>
+      </c>
+      <c r="H67">
+        <v>11.91</v>
+      </c>
+      <c r="I67">
+        <v>10.8</v>
+      </c>
+      <c r="J67">
+        <v>11.91</v>
+      </c>
+      <c r="K67">
+        <v>11.91</v>
+      </c>
+      <c r="L67">
+        <v>1013</v>
+      </c>
+      <c r="M67">
+        <v>1013</v>
+      </c>
+      <c r="N67">
+        <v>955</v>
+      </c>
+      <c r="O67">
+        <v>63</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>86</v>
+      </c>
+      <c r="R67">
+        <v>1.04</v>
+      </c>
+      <c r="S67">
+        <v>72</v>
+      </c>
+      <c r="T67">
+        <v>1.72</v>
+      </c>
+      <c r="U67" t="s">
+        <v>33</v>
+      </c>
+      <c r="W67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
+      <c r="A68">
+        <v>1708938000</v>
+      </c>
+      <c r="B68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68">
+        <v>10000</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45348.375</v>
+      </c>
+      <c r="F68" s="2">
+        <v>45348</v>
+      </c>
+      <c r="G68">
+        <v>9</v>
+      </c>
+      <c r="H68">
+        <v>13.6</v>
+      </c>
+      <c r="I68">
+        <v>12.48</v>
+      </c>
+      <c r="J68">
+        <v>13.6</v>
+      </c>
+      <c r="K68">
+        <v>13.6</v>
+      </c>
+      <c r="L68">
+        <v>1012</v>
+      </c>
+      <c r="M68">
+        <v>1012</v>
+      </c>
+      <c r="N68">
+        <v>955</v>
+      </c>
+      <c r="O68">
+        <v>56</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>90</v>
+      </c>
+      <c r="R68">
+        <v>0.71</v>
+      </c>
+      <c r="S68">
+        <v>86</v>
+      </c>
+      <c r="T68">
+        <v>2.23</v>
+      </c>
+      <c r="U68" t="s">
+        <v>33</v>
+      </c>
+      <c r="W68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
+      <c r="A69">
+        <v>1708941600</v>
+      </c>
+      <c r="B69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69">
+        <v>10000</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45348.41666666666</v>
+      </c>
+      <c r="F69" s="2">
+        <v>45348</v>
+      </c>
+      <c r="G69">
+        <v>10</v>
+      </c>
+      <c r="H69">
+        <v>14.93</v>
+      </c>
+      <c r="I69">
+        <v>13.81</v>
+      </c>
+      <c r="J69">
+        <v>14.93</v>
+      </c>
+      <c r="K69">
+        <v>14.93</v>
+      </c>
+      <c r="L69">
+        <v>1012</v>
+      </c>
+      <c r="M69">
+        <v>1012</v>
+      </c>
+      <c r="N69">
+        <v>955</v>
+      </c>
+      <c r="O69">
+        <v>51</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>86</v>
+      </c>
+      <c r="R69">
+        <v>0.95</v>
+      </c>
+      <c r="S69">
+        <v>207</v>
+      </c>
+      <c r="T69">
+        <v>2.91</v>
+      </c>
+      <c r="U69" t="s">
+        <v>33</v>
+      </c>
+      <c r="W69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
+      <c r="A70">
+        <v>1708945200</v>
+      </c>
+      <c r="B70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70">
+        <v>10000</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45348.45833333334</v>
+      </c>
+      <c r="F70" s="2">
+        <v>45348</v>
+      </c>
+      <c r="G70">
+        <v>11</v>
+      </c>
+      <c r="H70">
+        <v>15.55</v>
+      </c>
+      <c r="I70">
+        <v>14.39</v>
+      </c>
+      <c r="J70">
+        <v>15.55</v>
+      </c>
+      <c r="K70">
+        <v>15.55</v>
+      </c>
+      <c r="L70">
+        <v>1012</v>
+      </c>
+      <c r="M70">
+        <v>1012</v>
+      </c>
+      <c r="N70">
+        <v>954</v>
+      </c>
+      <c r="O70">
+        <v>47</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>82</v>
+      </c>
+      <c r="R70">
+        <v>1.77</v>
+      </c>
+      <c r="S70">
+        <v>229</v>
+      </c>
+      <c r="T70">
+        <v>3.41</v>
+      </c>
+      <c r="U70" t="s">
+        <v>33</v>
+      </c>
+      <c r="W70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
+      <c r="A71">
+        <v>1708948800</v>
+      </c>
+      <c r="B71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71">
+        <v>10000</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45348.5</v>
+      </c>
+      <c r="F71" s="2">
+        <v>45348</v>
+      </c>
+      <c r="G71">
+        <v>12</v>
+      </c>
+      <c r="H71">
+        <v>15.98</v>
+      </c>
+      <c r="I71">
+        <v>14.78</v>
+      </c>
+      <c r="J71">
+        <v>15.98</v>
+      </c>
+      <c r="K71">
+        <v>15.98</v>
+      </c>
+      <c r="L71">
+        <v>1011</v>
+      </c>
+      <c r="M71">
+        <v>1011</v>
+      </c>
+      <c r="N71">
+        <v>954</v>
+      </c>
+      <c r="O71">
+        <v>44</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>81</v>
+      </c>
+      <c r="R71">
+        <v>1.67</v>
+      </c>
+      <c r="S71">
+        <v>223</v>
+      </c>
+      <c r="T71">
+        <v>3</v>
+      </c>
+      <c r="U71" t="s">
+        <v>33</v>
+      </c>
+      <c r="W71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
+      <c r="A72">
+        <v>1708952400</v>
+      </c>
+      <c r="B72" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72">
+        <v>10000</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45348.54166666666</v>
+      </c>
+      <c r="F72" s="2">
+        <v>45348</v>
+      </c>
+      <c r="G72">
+        <v>13</v>
+      </c>
+      <c r="H72">
+        <v>16.2</v>
+      </c>
+      <c r="I72">
+        <v>14.97</v>
+      </c>
+      <c r="J72">
+        <v>16.2</v>
+      </c>
+      <c r="K72">
+        <v>16.2</v>
+      </c>
+      <c r="L72">
+        <v>1011</v>
+      </c>
+      <c r="M72">
+        <v>1011</v>
+      </c>
+      <c r="N72">
+        <v>954</v>
+      </c>
+      <c r="O72">
+        <v>42</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>33</v>
+      </c>
+      <c r="R72">
+        <v>1.7</v>
+      </c>
+      <c r="S72">
+        <v>216</v>
+      </c>
+      <c r="T72">
+        <v>2.95</v>
+      </c>
+      <c r="U72" t="s">
+        <v>33</v>
+      </c>
+      <c r="W72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
+      <c r="A73">
+        <v>1708956000</v>
+      </c>
+      <c r="B73" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73">
+        <v>10000</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45348.58333333334</v>
+      </c>
+      <c r="F73" s="2">
+        <v>45348</v>
+      </c>
+      <c r="G73">
+        <v>14</v>
+      </c>
+      <c r="H73">
+        <v>16.02</v>
+      </c>
+      <c r="I73">
+        <v>14.75</v>
+      </c>
+      <c r="J73">
+        <v>16.02</v>
+      </c>
+      <c r="K73">
+        <v>16.02</v>
+      </c>
+      <c r="L73">
+        <v>1012</v>
+      </c>
+      <c r="M73">
+        <v>1012</v>
+      </c>
+      <c r="N73">
+        <v>954</v>
+      </c>
+      <c r="O73">
+        <v>41</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>39</v>
+      </c>
+      <c r="R73">
+        <v>1.63</v>
+      </c>
+      <c r="S73">
+        <v>216</v>
+      </c>
+      <c r="T73">
+        <v>2.81</v>
+      </c>
+      <c r="U73" t="s">
+        <v>33</v>
+      </c>
+      <c r="W73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
+      <c r="A74">
+        <v>1708959600</v>
+      </c>
+      <c r="B74" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74">
+        <v>10000</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45348.625</v>
+      </c>
+      <c r="F74" s="2">
+        <v>45348</v>
+      </c>
+      <c r="G74">
+        <v>15</v>
+      </c>
+      <c r="H74">
+        <v>14.67</v>
+      </c>
+      <c r="I74">
+        <v>13.47</v>
+      </c>
+      <c r="J74">
+        <v>14.67</v>
+      </c>
+      <c r="K74">
+        <v>14.67</v>
+      </c>
+      <c r="L74">
+        <v>1012</v>
+      </c>
+      <c r="M74">
+        <v>1012</v>
+      </c>
+      <c r="N74">
+        <v>954</v>
+      </c>
+      <c r="O74">
+        <v>49</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>34</v>
+      </c>
+      <c r="R74">
+        <v>1.11</v>
+      </c>
+      <c r="S74">
+        <v>243</v>
+      </c>
+      <c r="T74">
+        <v>1.49</v>
+      </c>
+      <c r="U74" t="s">
+        <v>33</v>
+      </c>
+      <c r="W74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
+      <c r="A75">
+        <v>1708963200</v>
+      </c>
+      <c r="B75" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75">
+        <v>10000</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45348.66666666666</v>
+      </c>
+      <c r="F75" s="2">
+        <v>45348</v>
+      </c>
+      <c r="G75">
+        <v>16</v>
+      </c>
+      <c r="H75">
+        <v>12.14</v>
+      </c>
+      <c r="I75">
+        <v>10.85</v>
+      </c>
+      <c r="J75">
+        <v>12.14</v>
+      </c>
+      <c r="K75">
+        <v>12.14</v>
+      </c>
+      <c r="L75">
+        <v>1013</v>
+      </c>
+      <c r="M75">
+        <v>1013</v>
+      </c>
+      <c r="N75">
+        <v>955</v>
+      </c>
+      <c r="O75">
+        <v>55</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>50</v>
+      </c>
+      <c r="R75">
+        <v>0.27</v>
+      </c>
+      <c r="S75">
+        <v>211</v>
+      </c>
+      <c r="T75">
+        <v>0.71</v>
+      </c>
+      <c r="U75" t="s">
+        <v>33</v>
+      </c>
+      <c r="W75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
+      <c r="A76">
+        <v>1708966800</v>
+      </c>
+      <c r="B76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76">
+        <v>10000</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45348.70833333334</v>
+      </c>
+      <c r="F76" s="2">
+        <v>45348</v>
+      </c>
+      <c r="G76">
+        <v>17</v>
+      </c>
+      <c r="H76">
+        <v>11.27</v>
+      </c>
+      <c r="I76">
+        <v>9.99</v>
+      </c>
+      <c r="J76">
+        <v>11.27</v>
+      </c>
+      <c r="K76">
+        <v>11.27</v>
+      </c>
+      <c r="L76">
+        <v>1013</v>
+      </c>
+      <c r="M76">
+        <v>1013</v>
+      </c>
+      <c r="N76">
+        <v>955</v>
+      </c>
+      <c r="O76">
+        <v>59</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>60</v>
+      </c>
+      <c r="R76">
+        <v>1.06</v>
+      </c>
+      <c r="S76">
+        <v>81</v>
+      </c>
+      <c r="T76">
+        <v>0.96</v>
+      </c>
+      <c r="U76" t="s">
+        <v>34</v>
+      </c>
+      <c r="W76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
+      <c r="A77">
+        <v>1708970400</v>
+      </c>
+      <c r="B77" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77">
+        <v>10000</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45348.75</v>
+      </c>
+      <c r="F77" s="2">
+        <v>45348</v>
+      </c>
+      <c r="G77">
+        <v>18</v>
+      </c>
+      <c r="H77">
+        <v>10.65</v>
+      </c>
+      <c r="I77">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="J77">
+        <v>10.65</v>
+      </c>
+      <c r="K77">
+        <v>10.65</v>
+      </c>
+      <c r="L77">
+        <v>1014</v>
+      </c>
+      <c r="M77">
+        <v>1014</v>
+      </c>
+      <c r="N77">
+        <v>956</v>
+      </c>
+      <c r="O77">
+        <v>62</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>67</v>
+      </c>
+      <c r="R77">
+        <v>1.72</v>
+      </c>
+      <c r="S77">
+        <v>81</v>
+      </c>
+      <c r="T77">
+        <v>1.57</v>
+      </c>
+      <c r="U77" t="s">
+        <v>34</v>
+      </c>
+      <c r="W77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
+      <c r="A78">
+        <v>1708974000</v>
+      </c>
+      <c r="B78" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78">
+        <v>10000</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45348.79166666666</v>
+      </c>
+      <c r="F78" s="2">
+        <v>45348</v>
+      </c>
+      <c r="G78">
+        <v>19</v>
+      </c>
+      <c r="H78">
+        <v>10.07</v>
+      </c>
+      <c r="I78">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J78">
+        <v>10.07</v>
+      </c>
+      <c r="K78">
+        <v>10.07</v>
+      </c>
+      <c r="L78">
+        <v>1015</v>
+      </c>
+      <c r="M78">
+        <v>1015</v>
+      </c>
+      <c r="N78">
+        <v>956</v>
+      </c>
+      <c r="O78">
+        <v>64</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>25</v>
+      </c>
+      <c r="R78">
+        <v>2.12</v>
+      </c>
+      <c r="S78">
+        <v>86</v>
+      </c>
+      <c r="T78">
+        <v>1.91</v>
+      </c>
+      <c r="U78" t="s">
+        <v>34</v>
+      </c>
+      <c r="W78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
+      <c r="A79">
+        <v>1708977600</v>
+      </c>
+      <c r="B79" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79">
+        <v>10000</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45348.83333333334</v>
+      </c>
+      <c r="F79" s="2">
+        <v>45348</v>
+      </c>
+      <c r="G79">
+        <v>20</v>
+      </c>
+      <c r="H79">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="I79">
+        <v>8.58</v>
+      </c>
+      <c r="J79">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="K79">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="L79">
+        <v>1016</v>
+      </c>
+      <c r="M79">
+        <v>1016</v>
+      </c>
+      <c r="N79">
+        <v>957</v>
+      </c>
+      <c r="O79">
+        <v>64</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>21</v>
+      </c>
+      <c r="R79">
+        <v>2.09</v>
+      </c>
+      <c r="S79">
+        <v>91</v>
+      </c>
+      <c r="T79">
+        <v>1.88</v>
+      </c>
+      <c r="U79" t="s">
+        <v>34</v>
+      </c>
+      <c r="W79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
+      <c r="A80">
+        <v>1708981200</v>
+      </c>
+      <c r="B80" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80">
+        <v>10000</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45348.875</v>
+      </c>
+      <c r="F80" s="2">
+        <v>45348</v>
+      </c>
+      <c r="G80">
+        <v>21</v>
+      </c>
+      <c r="H80">
+        <v>9.01</v>
+      </c>
+      <c r="I80">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="J80">
+        <v>9.01</v>
+      </c>
+      <c r="K80">
+        <v>9.01</v>
+      </c>
+      <c r="L80">
+        <v>1016</v>
+      </c>
+      <c r="M80">
+        <v>1016</v>
+      </c>
+      <c r="N80">
+        <v>957</v>
+      </c>
+      <c r="O80">
+        <v>63</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>19</v>
+      </c>
+      <c r="R80">
+        <v>1.99</v>
+      </c>
+      <c r="S80">
+        <v>94</v>
+      </c>
+      <c r="T80">
+        <v>1.78</v>
+      </c>
+      <c r="U80" t="s">
+        <v>34</v>
+      </c>
+      <c r="W80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
+      <c r="A81">
+        <v>1708984800</v>
+      </c>
+      <c r="B81" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81">
+        <v>10000</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45348.91666666666</v>
+      </c>
+      <c r="F81" s="2">
+        <v>45348</v>
+      </c>
+      <c r="G81">
+        <v>22</v>
+      </c>
+      <c r="H81">
+        <v>8.58</v>
+      </c>
+      <c r="I81">
+        <v>7.54</v>
+      </c>
+      <c r="J81">
+        <v>8.58</v>
+      </c>
+      <c r="K81">
+        <v>8.58</v>
+      </c>
+      <c r="L81">
+        <v>1016</v>
+      </c>
+      <c r="M81">
+        <v>1016</v>
+      </c>
+      <c r="N81">
+        <v>957</v>
+      </c>
+      <c r="O81">
+        <v>64</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>19</v>
+      </c>
+      <c r="R81">
+        <v>2</v>
+      </c>
+      <c r="S81">
+        <v>87</v>
+      </c>
+      <c r="T81">
+        <v>1.69</v>
+      </c>
+      <c r="U81" t="s">
+        <v>34</v>
+      </c>
+      <c r="W81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
+      <c r="A82">
+        <v>1708988400</v>
+      </c>
+      <c r="B82" t="s">
+        <v>30</v>
+      </c>
+      <c r="C82">
+        <v>10000</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45348.95833333334</v>
+      </c>
+      <c r="F82" s="2">
+        <v>45348</v>
+      </c>
+      <c r="G82">
+        <v>23</v>
+      </c>
+      <c r="H82">
+        <v>8.16</v>
+      </c>
+      <c r="I82">
+        <v>7.09</v>
+      </c>
+      <c r="J82">
+        <v>8.16</v>
+      </c>
+      <c r="K82">
+        <v>8.16</v>
+      </c>
+      <c r="L82">
+        <v>1017</v>
+      </c>
+      <c r="M82">
+        <v>1017</v>
+      </c>
+      <c r="N82">
+        <v>958</v>
+      </c>
+      <c r="O82">
+        <v>64</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>18</v>
+      </c>
+      <c r="R82">
+        <v>1.95</v>
+      </c>
+      <c r="S82">
+        <v>80</v>
+      </c>
+      <c r="T82">
+        <v>1.68</v>
+      </c>
+      <c r="U82" t="s">
+        <v>34</v>
+      </c>
+      <c r="W82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
+      <c r="A83">
+        <v>1708992000</v>
+      </c>
+      <c r="B83" t="s">
+        <v>30</v>
+      </c>
+      <c r="C83">
+        <v>10000</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45349</v>
+      </c>
+      <c r="F83" s="2">
+        <v>45349</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>7.79</v>
+      </c>
+      <c r="I83">
+        <v>6.64</v>
+      </c>
+      <c r="J83">
+        <v>7.79</v>
+      </c>
+      <c r="K83">
+        <v>7.79</v>
+      </c>
+      <c r="L83">
+        <v>1017</v>
+      </c>
+      <c r="M83">
+        <v>1017</v>
+      </c>
+      <c r="N83">
+        <v>958</v>
+      </c>
+      <c r="O83">
+        <v>65</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>17</v>
+      </c>
+      <c r="R83">
+        <v>1.98</v>
+      </c>
+      <c r="S83">
+        <v>80</v>
+      </c>
+      <c r="T83">
+        <v>1.76</v>
+      </c>
+      <c r="U83" t="s">
+        <v>34</v>
+      </c>
+      <c r="W83" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
+      <c r="A84">
+        <v>1708995600</v>
+      </c>
+      <c r="B84" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84">
+        <v>10000</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45349.04166666666</v>
+      </c>
+      <c r="F84" s="2">
+        <v>45349</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>7.43</v>
+      </c>
+      <c r="I84">
+        <v>6.24</v>
+      </c>
+      <c r="J84">
+        <v>7.43</v>
+      </c>
+      <c r="K84">
+        <v>7.43</v>
+      </c>
+      <c r="L84">
+        <v>1017</v>
+      </c>
+      <c r="M84">
+        <v>1017</v>
+      </c>
+      <c r="N84">
+        <v>958</v>
+      </c>
+      <c r="O84">
+        <v>65</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>17</v>
+      </c>
+      <c r="R84">
+        <v>1.96</v>
+      </c>
+      <c r="S84">
+        <v>83</v>
+      </c>
+      <c r="T84">
+        <v>1.74</v>
+      </c>
+      <c r="U84" t="s">
+        <v>34</v>
+      </c>
+      <c r="W84" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
+      <c r="A85">
+        <v>1708999200</v>
+      </c>
+      <c r="B85" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85">
+        <v>10000</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45349.08333333334</v>
+      </c>
+      <c r="F85" s="2">
+        <v>45349</v>
+      </c>
+      <c r="G85">
+        <v>2</v>
+      </c>
+      <c r="H85">
+        <v>7.09</v>
+      </c>
+      <c r="I85">
+        <v>5.79</v>
+      </c>
+      <c r="J85">
+        <v>7.09</v>
+      </c>
+      <c r="K85">
+        <v>7.09</v>
+      </c>
+      <c r="L85">
+        <v>1017</v>
+      </c>
+      <c r="M85">
+        <v>1017</v>
+      </c>
+      <c r="N85">
+        <v>958</v>
+      </c>
+      <c r="O85">
+        <v>65</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>19</v>
+      </c>
+      <c r="R85">
+        <v>2.01</v>
+      </c>
+      <c r="S85">
+        <v>88</v>
+      </c>
+      <c r="T85">
+        <v>1.74</v>
+      </c>
+      <c r="U85" t="s">
+        <v>34</v>
+      </c>
+      <c r="W85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
+      <c r="A86">
+        <v>1709002800</v>
+      </c>
+      <c r="B86" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86">
+        <v>10000</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45349.125</v>
+      </c>
+      <c r="F86" s="2">
+        <v>45349</v>
+      </c>
+      <c r="G86">
+        <v>3</v>
+      </c>
+      <c r="H86">
+        <v>6.85</v>
+      </c>
+      <c r="I86">
+        <v>5.52</v>
+      </c>
+      <c r="J86">
+        <v>6.85</v>
+      </c>
+      <c r="K86">
+        <v>6.85</v>
+      </c>
+      <c r="L86">
+        <v>1018</v>
+      </c>
+      <c r="M86">
+        <v>1018</v>
+      </c>
+      <c r="N86">
+        <v>958</v>
+      </c>
+      <c r="O86">
+        <v>65</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>28</v>
+      </c>
+      <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="S86">
+        <v>88</v>
+      </c>
+      <c r="T86">
+        <v>1.74</v>
+      </c>
+      <c r="U86" t="s">
+        <v>34</v>
+      </c>
+      <c r="W86" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
+      <c r="A87">
+        <v>1709006400</v>
+      </c>
+      <c r="B87" t="s">
+        <v>29</v>
+      </c>
+      <c r="C87">
+        <v>10000</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45349.16666666666</v>
+      </c>
+      <c r="F87" s="2">
+        <v>45349</v>
+      </c>
+      <c r="G87">
+        <v>4</v>
+      </c>
+      <c r="H87">
+        <v>6.56</v>
+      </c>
+      <c r="I87">
+        <v>5.32</v>
+      </c>
+      <c r="J87">
+        <v>6.56</v>
+      </c>
+      <c r="K87">
+        <v>6.56</v>
+      </c>
+      <c r="L87">
+        <v>1018</v>
+      </c>
+      <c r="M87">
+        <v>1018</v>
+      </c>
+      <c r="N87">
+        <v>958</v>
+      </c>
+      <c r="O87">
+        <v>65</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>34</v>
+      </c>
+      <c r="R87">
+        <v>1.86</v>
+      </c>
+      <c r="S87">
+        <v>85</v>
+      </c>
+      <c r="T87">
+        <v>1.64</v>
+      </c>
+      <c r="U87" t="s">
+        <v>34</v>
+      </c>
+      <c r="W87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
+      <c r="A88">
+        <v>1709010000</v>
+      </c>
+      <c r="B88" t="s">
+        <v>29</v>
+      </c>
+      <c r="C88">
+        <v>10000</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45349.20833333334</v>
+      </c>
+      <c r="F88" s="2">
+        <v>45349</v>
+      </c>
+      <c r="G88">
+        <v>5</v>
+      </c>
+      <c r="H88">
+        <v>6.19</v>
+      </c>
+      <c r="I88">
+        <v>5.07</v>
+      </c>
+      <c r="J88">
+        <v>6.19</v>
+      </c>
+      <c r="K88">
+        <v>6.19</v>
+      </c>
+      <c r="L88">
+        <v>1018</v>
+      </c>
+      <c r="M88">
+        <v>1018</v>
+      </c>
+      <c r="N88">
+        <v>959</v>
+      </c>
+      <c r="O88">
+        <v>65</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>30</v>
+      </c>
+      <c r="R88">
+        <v>1.7</v>
+      </c>
+      <c r="S88">
+        <v>88</v>
+      </c>
+      <c r="T88">
+        <v>1.55</v>
+      </c>
+      <c r="U88" t="s">
+        <v>34</v>
+      </c>
+      <c r="W88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
+      <c r="A89">
+        <v>1709013600</v>
+      </c>
+      <c r="B89" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89">
+        <v>10000</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45349.25</v>
+      </c>
+      <c r="F89" s="2">
+        <v>45349</v>
+      </c>
+      <c r="G89">
+        <v>6</v>
+      </c>
+      <c r="H89">
+        <v>6.9</v>
+      </c>
+      <c r="I89">
+        <v>5.89</v>
+      </c>
+      <c r="J89">
+        <v>6.9</v>
+      </c>
+      <c r="K89">
+        <v>6.9</v>
+      </c>
+      <c r="L89">
+        <v>1019</v>
+      </c>
+      <c r="M89">
+        <v>1019</v>
+      </c>
+      <c r="N89">
+        <v>960</v>
+      </c>
+      <c r="O89">
+        <v>62</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>27</v>
+      </c>
+      <c r="R89">
+        <v>1.7</v>
+      </c>
+      <c r="S89">
+        <v>88</v>
+      </c>
+      <c r="T89">
+        <v>1.49</v>
+      </c>
+      <c r="U89" t="s">
+        <v>33</v>
+      </c>
+      <c r="W89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
+      <c r="A90">
+        <v>1709017200</v>
+      </c>
+      <c r="B90" t="s">
+        <v>31</v>
+      </c>
+      <c r="C90">
+        <v>10000</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45349.29166666666</v>
+      </c>
+      <c r="F90" s="2">
+        <v>45349</v>
+      </c>
+      <c r="G90">
+        <v>7</v>
+      </c>
+      <c r="H90">
+        <v>9.42</v>
+      </c>
+      <c r="I90">
+        <v>9.42</v>
+      </c>
+      <c r="J90">
+        <v>9.42</v>
+      </c>
+      <c r="K90">
+        <v>9.42</v>
+      </c>
+      <c r="L90">
+        <v>1019</v>
+      </c>
+      <c r="M90">
+        <v>1019</v>
+      </c>
+      <c r="N90">
+        <v>960</v>
+      </c>
+      <c r="O90">
+        <v>54</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>10</v>
+      </c>
+      <c r="R90">
+        <v>1.12</v>
+      </c>
+      <c r="S90">
+        <v>83</v>
+      </c>
+      <c r="T90">
+        <v>1.5</v>
+      </c>
+      <c r="U90" t="s">
+        <v>33</v>
+      </c>
+      <c r="W90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23">
+      <c r="A91">
+        <v>1709020800</v>
+      </c>
+      <c r="B91" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91">
+        <v>10000</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45349.33333333334</v>
+      </c>
+      <c r="F91" s="2">
+        <v>45349</v>
+      </c>
+      <c r="G91">
+        <v>8</v>
+      </c>
+      <c r="H91">
+        <v>11.71</v>
+      </c>
+      <c r="I91">
+        <v>10.11</v>
+      </c>
+      <c r="J91">
+        <v>11.71</v>
+      </c>
+      <c r="K91">
+        <v>11.71</v>
+      </c>
+      <c r="L91">
+        <v>1018</v>
+      </c>
+      <c r="M91">
+        <v>1018</v>
+      </c>
+      <c r="N91">
+        <v>960</v>
+      </c>
+      <c r="O91">
+        <v>45</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>9</v>
+      </c>
+      <c r="R91">
+        <v>0.52</v>
+      </c>
+      <c r="S91">
+        <v>65</v>
+      </c>
+      <c r="T91">
+        <v>1.08</v>
+      </c>
+      <c r="U91" t="s">
+        <v>33</v>
+      </c>
+      <c r="W91" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23">
+      <c r="A92">
+        <v>1709024400</v>
+      </c>
+      <c r="B92" t="s">
+        <v>31</v>
+      </c>
+      <c r="C92">
+        <v>10000</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45349.375</v>
+      </c>
+      <c r="F92" s="2">
+        <v>45349</v>
+      </c>
+      <c r="G92">
+        <v>9</v>
+      </c>
+      <c r="H92">
+        <v>13.46</v>
+      </c>
+      <c r="I92">
+        <v>11.91</v>
+      </c>
+      <c r="J92">
+        <v>13.46</v>
+      </c>
+      <c r="K92">
+        <v>13.46</v>
+      </c>
+      <c r="L92">
+        <v>1018</v>
+      </c>
+      <c r="M92">
+        <v>1018</v>
+      </c>
+      <c r="N92">
+        <v>960</v>
+      </c>
+      <c r="O92">
+        <v>40</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>9</v>
+      </c>
+      <c r="R92">
+        <v>0.51</v>
+      </c>
+      <c r="S92">
+        <v>241</v>
+      </c>
+      <c r="T92">
+        <v>1.13</v>
+      </c>
+      <c r="U92" t="s">
+        <v>33</v>
+      </c>
+      <c r="W92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23">
+      <c r="A93">
+        <v>1709028000</v>
+      </c>
+      <c r="B93" t="s">
+        <v>31</v>
+      </c>
+      <c r="C93">
+        <v>10000</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45349.41666666666</v>
+      </c>
+      <c r="F93" s="2">
+        <v>45349</v>
+      </c>
+      <c r="G93">
+        <v>10</v>
+      </c>
+      <c r="H93">
+        <v>14.37</v>
+      </c>
+      <c r="I93">
+        <v>12.85</v>
+      </c>
+      <c r="J93">
+        <v>14.37</v>
+      </c>
+      <c r="K93">
+        <v>14.37</v>
+      </c>
+      <c r="L93">
+        <v>1018</v>
+      </c>
+      <c r="M93">
+        <v>1018</v>
+      </c>
+      <c r="N93">
+        <v>960</v>
+      </c>
+      <c r="O93">
+        <v>38</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>9</v>
+      </c>
+      <c r="R93">
+        <v>1.78</v>
+      </c>
+      <c r="S93">
+        <v>246</v>
+      </c>
+      <c r="T93">
+        <v>2.21</v>
+      </c>
+      <c r="U93" t="s">
+        <v>33</v>
+      </c>
+      <c r="W93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23">
+      <c r="A94">
+        <v>1709031600</v>
+      </c>
+      <c r="B94" t="s">
+        <v>31</v>
+      </c>
+      <c r="C94">
+        <v>10000</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45349.45833333334</v>
+      </c>
+      <c r="F94" s="2">
+        <v>45349</v>
+      </c>
+      <c r="G94">
+        <v>11</v>
+      </c>
+      <c r="H94">
+        <v>14.86</v>
+      </c>
+      <c r="I94">
+        <v>13.37</v>
+      </c>
+      <c r="J94">
+        <v>14.86</v>
+      </c>
+      <c r="K94">
+        <v>14.86</v>
+      </c>
+      <c r="L94">
+        <v>1017</v>
+      </c>
+      <c r="M94">
+        <v>1017</v>
+      </c>
+      <c r="N94">
+        <v>959</v>
+      </c>
+      <c r="O94">
+        <v>37</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>9</v>
+      </c>
+      <c r="R94">
+        <v>2.06</v>
+      </c>
+      <c r="S94">
+        <v>247</v>
+      </c>
+      <c r="T94">
+        <v>2.79</v>
+      </c>
+      <c r="U94" t="s">
+        <v>33</v>
+      </c>
+      <c r="W94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23">
+      <c r="A95">
+        <v>1709035200</v>
+      </c>
+      <c r="B95" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95">
+        <v>10000</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45349.5</v>
+      </c>
+      <c r="F95" s="2">
+        <v>45349</v>
+      </c>
+      <c r="G95">
+        <v>12</v>
+      </c>
+      <c r="H95">
+        <v>15.3</v>
+      </c>
+      <c r="I95">
+        <v>13.83</v>
+      </c>
+      <c r="J95">
+        <v>15.3</v>
+      </c>
+      <c r="K95">
+        <v>15.3</v>
+      </c>
+      <c r="L95">
+        <v>1017</v>
+      </c>
+      <c r="M95">
+        <v>1017</v>
+      </c>
+      <c r="N95">
+        <v>959</v>
+      </c>
+      <c r="O95">
+        <v>36</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>11</v>
+      </c>
+      <c r="R95">
+        <v>1.87</v>
+      </c>
+      <c r="S95">
+        <v>241</v>
+      </c>
+      <c r="T95">
+        <v>3.04</v>
+      </c>
+      <c r="U95" t="s">
+        <v>33</v>
+      </c>
+      <c r="W95" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23">
+      <c r="A96">
+        <v>1709038800</v>
+      </c>
+      <c r="B96" t="s">
+        <v>32</v>
+      </c>
+      <c r="C96">
+        <v>10000</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45349.54166666666</v>
+      </c>
+      <c r="F96" s="2">
+        <v>45349</v>
+      </c>
+      <c r="G96">
+        <v>13</v>
+      </c>
+      <c r="H96">
+        <v>15.61</v>
+      </c>
+      <c r="I96">
+        <v>14.09</v>
+      </c>
+      <c r="J96">
+        <v>15.61</v>
+      </c>
+      <c r="K96">
+        <v>15.61</v>
+      </c>
+      <c r="L96">
+        <v>1017</v>
+      </c>
+      <c r="M96">
+        <v>1017</v>
+      </c>
+      <c r="N96">
+        <v>959</v>
+      </c>
+      <c r="O96">
+        <v>33</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>21</v>
+      </c>
+      <c r="R96">
+        <v>1.8</v>
+      </c>
+      <c r="S96">
+        <v>232</v>
+      </c>
+      <c r="T96">
+        <v>3.3</v>
+      </c>
+      <c r="U96" t="s">
+        <v>33</v>
+      </c>
+      <c r="W96" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23">
+      <c r="A97">
+        <v>1709042400</v>
+      </c>
+      <c r="B97" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97">
+        <v>10000</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45349.58333333334</v>
+      </c>
+      <c r="F97" s="2">
+        <v>45349</v>
+      </c>
+      <c r="G97">
+        <v>14</v>
+      </c>
+      <c r="H97">
+        <v>15.47</v>
+      </c>
+      <c r="I97">
+        <v>13.91</v>
+      </c>
+      <c r="J97">
+        <v>15.47</v>
+      </c>
+      <c r="K97">
+        <v>15.47</v>
+      </c>
+      <c r="L97">
+        <v>1017</v>
+      </c>
+      <c r="M97">
+        <v>1017</v>
+      </c>
+      <c r="N97">
+        <v>959</v>
+      </c>
+      <c r="O97">
+        <v>32</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>32</v>
+      </c>
+      <c r="R97">
+        <v>1.72</v>
+      </c>
+      <c r="S97">
+        <v>226</v>
+      </c>
+      <c r="T97">
+        <v>2.76</v>
+      </c>
+      <c r="U97" t="s">
+        <v>33</v>
+      </c>
+      <c r="W97" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
